--- a/upload/import/importguru.xlsx
+++ b/upload/import/importguru.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="e9nFTUa9QnM4Be3vqhKaOSBIVpW6GTbf+00yFKgld9k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ONvpBqRlA+2FPN0+KHRcY/JjnGzLtZJ3DWABttsXaDM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ALAMAT</t>
   </si>
   <si>
-    <t>PHOTO</t>
-  </si>
-  <si>
     <t>HARAP ISI DATA PADA KOLOM DENGAN BENAR</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Gadu Timur</t>
-  </si>
-  <si>
-    <t>user.png</t>
   </si>
   <si>
     <t>BY : AQID FAHRI HAFIN, S.KOM</t>
@@ -208,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -240,9 +234,6 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -469,9 +460,8 @@
     <col customWidth="1" min="7" max="8" width="18.43"/>
     <col customWidth="1" min="9" max="9" width="18.29"/>
     <col customWidth="1" min="10" max="10" width="30.14"/>
-    <col customWidth="1" min="11" max="11" width="16.14"/>
-    <col customWidth="1" min="12" max="12" width="3.86"/>
-    <col customWidth="1" min="13" max="29" width="8.71"/>
+    <col customWidth="1" min="11" max="11" width="3.86"/>
+    <col customWidth="1" min="12" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
@@ -505,13 +495,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -520,36 +508,35 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="7">
         <v>1.0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="9">
         <v>36544.0</v>
@@ -558,14 +545,12 @@
         <v>8.7879501315E10</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -574,8 +559,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="8"/>
@@ -588,7 +572,6 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="7"/>
@@ -601,7 +584,6 @@
       <c r="H4" s="9"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="7"/>
@@ -614,7 +596,6 @@
       <c r="H5" s="9"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="7"/>
@@ -627,7 +608,6 @@
       <c r="H6" s="9"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="7"/>
@@ -640,7 +620,6 @@
       <c r="H7" s="9"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="7"/>
@@ -653,7 +632,6 @@
       <c r="H8" s="9"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="7"/>
@@ -666,7 +644,6 @@
       <c r="H9" s="9"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="7"/>
@@ -679,7 +656,6 @@
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="7"/>
@@ -692,7 +668,6 @@
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="7"/>
@@ -705,7 +680,6 @@
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="7"/>
@@ -718,7 +692,6 @@
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="7"/>
@@ -731,7 +704,6 @@
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="7"/>
@@ -744,7 +716,6 @@
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="7"/>
@@ -757,7 +728,6 @@
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="7"/>
@@ -770,7 +740,6 @@
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="7"/>
@@ -783,7 +752,6 @@
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="7"/>
@@ -796,7 +764,6 @@
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
@@ -809,7 +776,6 @@
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
@@ -822,7 +788,6 @@
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
@@ -835,7 +800,6 @@
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
@@ -848,7 +812,6 @@
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
@@ -861,7 +824,6 @@
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
@@ -874,7 +836,6 @@
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
@@ -887,7 +848,6 @@
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
@@ -900,7 +860,6 @@
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
@@ -913,7 +872,6 @@
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
@@ -926,7 +884,6 @@
       <c r="H29" s="9"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
@@ -939,7 +896,6 @@
       <c r="H30" s="9"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
@@ -952,7 +908,6 @@
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
@@ -965,7 +920,6 @@
       <c r="H32" s="9"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
@@ -978,7 +932,6 @@
       <c r="H33" s="9"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
@@ -991,7 +944,6 @@
       <c r="H34" s="9"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
@@ -1004,7 +956,6 @@
       <c r="H35" s="9"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
@@ -1017,7 +968,6 @@
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
@@ -1030,7 +980,6 @@
       <c r="H37" s="9"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
@@ -1043,7 +992,6 @@
       <c r="H38" s="9"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
@@ -1056,7 +1004,6 @@
       <c r="H39" s="9"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
@@ -1069,7 +1016,6 @@
       <c r="H40" s="9"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
@@ -1082,7 +1028,6 @@
       <c r="H41" s="9"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
@@ -1095,7 +1040,6 @@
       <c r="H42" s="9"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7"/>
@@ -1108,7 +1052,6 @@
       <c r="H43" s="9"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
@@ -1121,7 +1064,6 @@
       <c r="H44" s="9"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
@@ -1134,7 +1076,6 @@
       <c r="H45" s="9"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
@@ -1147,7 +1088,6 @@
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
@@ -1160,7 +1100,6 @@
       <c r="H47" s="9"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7"/>
@@ -1173,7 +1112,6 @@
       <c r="H48" s="9"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
@@ -1186,7 +1124,6 @@
       <c r="H49" s="9"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
@@ -1199,7 +1136,6 @@
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
@@ -1212,7 +1148,6 @@
       <c r="H51" s="9"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
@@ -1225,7 +1160,6 @@
       <c r="H52" s="9"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
@@ -1238,7 +1172,6 @@
       <c r="H53" s="9"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="7"/>
@@ -1251,7 +1184,6 @@
       <c r="H54" s="9"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="7"/>
@@ -1264,7 +1196,6 @@
       <c r="H55" s="9"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="7"/>
@@ -1277,7 +1208,6 @@
       <c r="H56" s="9"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="7"/>
@@ -1290,7 +1220,6 @@
       <c r="H57" s="9"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="7"/>
@@ -1303,7 +1232,6 @@
       <c r="H58" s="9"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="7"/>
@@ -1316,7 +1244,6 @@
       <c r="H59" s="9"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7"/>
@@ -1329,7 +1256,6 @@
       <c r="H60" s="9"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7"/>
@@ -1342,7 +1268,6 @@
       <c r="H61" s="9"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7"/>
@@ -1355,7 +1280,6 @@
       <c r="H62" s="9"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7"/>
@@ -1368,7 +1292,6 @@
       <c r="H63" s="9"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="7"/>
@@ -1381,7 +1304,6 @@
       <c r="H64" s="9"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="7"/>
@@ -1394,7 +1316,6 @@
       <c r="H65" s="9"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="7"/>
@@ -1407,7 +1328,6 @@
       <c r="H66" s="9"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7"/>
@@ -1420,7 +1340,6 @@
       <c r="H67" s="9"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7"/>
@@ -1433,7 +1352,6 @@
       <c r="H68" s="9"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="7"/>
@@ -1446,7 +1364,6 @@
       <c r="H69" s="9"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7"/>
@@ -1459,7 +1376,6 @@
       <c r="H70" s="9"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="7"/>
@@ -1472,7 +1388,6 @@
       <c r="H71" s="9"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="7"/>
@@ -1485,7 +1400,6 @@
       <c r="H72" s="9"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7"/>
@@ -1498,7 +1412,6 @@
       <c r="H73" s="9"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="7"/>
@@ -1511,7 +1424,6 @@
       <c r="H74" s="9"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7"/>
@@ -1524,7 +1436,6 @@
       <c r="H75" s="9"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
@@ -1537,7 +1448,6 @@
       <c r="H76" s="9"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
@@ -1550,7 +1460,6 @@
       <c r="H77" s="9"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="7"/>
@@ -1563,7 +1472,6 @@
       <c r="H78" s="9"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7"/>
@@ -1576,7 +1484,6 @@
       <c r="H79" s="9"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="7"/>
@@ -1589,7 +1496,6 @@
       <c r="H80" s="9"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7"/>
@@ -1602,7 +1508,6 @@
       <c r="H81" s="9"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="7"/>
@@ -1615,7 +1520,6 @@
       <c r="H82" s="9"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="7"/>
@@ -1628,7 +1532,6 @@
       <c r="H83" s="9"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -1641,7 +1544,6 @@
       <c r="H84" s="9"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="7"/>
@@ -1654,7 +1556,6 @@
       <c r="H85" s="9"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="7"/>
@@ -1667,7 +1568,6 @@
       <c r="H86" s="9"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="7"/>
@@ -1680,7 +1580,6 @@
       <c r="H87" s="9"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="7"/>
@@ -1693,7 +1592,6 @@
       <c r="H88" s="9"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="7"/>
@@ -1706,7 +1604,6 @@
       <c r="H89" s="9"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="7"/>
@@ -1719,7 +1616,6 @@
       <c r="H90" s="9"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="7"/>
@@ -1732,7 +1628,6 @@
       <c r="H91" s="9"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="7"/>
@@ -1745,7 +1640,6 @@
       <c r="H92" s="9"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="7"/>
@@ -1758,7 +1652,6 @@
       <c r="H93" s="9"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="7"/>
@@ -1771,7 +1664,6 @@
       <c r="H94" s="9"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="7"/>
@@ -1784,7 +1676,6 @@
       <c r="H95" s="9"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="7"/>
@@ -1797,7 +1688,6 @@
       <c r="H96" s="9"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="7"/>
@@ -1810,7 +1700,6 @@
       <c r="H97" s="9"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="7"/>
@@ -1823,7 +1712,6 @@
       <c r="H98" s="9"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="7"/>
@@ -1836,7 +1724,6 @@
       <c r="H99" s="9"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="7"/>
@@ -1849,7 +1736,6 @@
       <c r="H100" s="9"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="7"/>
@@ -1862,7 +1748,6 @@
       <c r="H101" s="9"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="7"/>
@@ -1875,7 +1760,6 @@
       <c r="H102" s="9"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="7"/>
@@ -1888,7 +1772,6 @@
       <c r="H103" s="9"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="7"/>
@@ -1901,7 +1784,6 @@
       <c r="H104" s="9"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="7"/>
@@ -1914,7 +1796,6 @@
       <c r="H105" s="9"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="7"/>
@@ -1927,7 +1808,6 @@
       <c r="H106" s="9"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="7"/>
@@ -1940,7 +1820,6 @@
       <c r="H107" s="9"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="7"/>
@@ -1953,7 +1832,6 @@
       <c r="H108" s="9"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="7"/>
@@ -1966,7 +1844,6 @@
       <c r="H109" s="9"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="7"/>
@@ -1979,7 +1856,6 @@
       <c r="H110" s="9"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="7"/>
@@ -1992,7 +1868,6 @@
       <c r="H111" s="9"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="7"/>
@@ -2005,7 +1880,6 @@
       <c r="H112" s="9"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="7"/>
@@ -2018,7 +1892,6 @@
       <c r="H113" s="9"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="7"/>
@@ -2031,7 +1904,6 @@
       <c r="H114" s="9"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="7"/>
@@ -2044,7 +1916,6 @@
       <c r="H115" s="9"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="7"/>
@@ -2057,7 +1928,6 @@
       <c r="H116" s="9"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="7"/>
@@ -2070,7 +1940,6 @@
       <c r="H117" s="9"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="7"/>
@@ -2083,7 +1952,6 @@
       <c r="H118" s="9"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="7"/>
@@ -2096,7 +1964,6 @@
       <c r="H119" s="9"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="7"/>
@@ -2109,7 +1976,6 @@
       <c r="H120" s="9"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="7"/>
@@ -2122,7 +1988,6 @@
       <c r="H121" s="9"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="7"/>
@@ -2135,7 +2000,6 @@
       <c r="H122" s="9"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="7"/>
@@ -2148,7 +2012,6 @@
       <c r="H123" s="9"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="7"/>
@@ -2161,7 +2024,6 @@
       <c r="H124" s="9"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="7"/>
@@ -2174,7 +2036,6 @@
       <c r="H125" s="9"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="7"/>
@@ -2187,7 +2048,6 @@
       <c r="H126" s="9"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="7"/>
@@ -2200,7 +2060,6 @@
       <c r="H127" s="9"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="7"/>
@@ -2213,7 +2072,6 @@
       <c r="H128" s="9"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="7"/>
@@ -2226,7 +2084,6 @@
       <c r="H129" s="9"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="7"/>
@@ -2239,7 +2096,6 @@
       <c r="H130" s="9"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="7"/>
@@ -2252,7 +2108,6 @@
       <c r="H131" s="9"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="7"/>
@@ -2265,7 +2120,6 @@
       <c r="H132" s="9"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="7"/>
@@ -2278,7 +2132,6 @@
       <c r="H133" s="9"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="7"/>
@@ -2291,7 +2144,6 @@
       <c r="H134" s="9"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="7"/>
@@ -2304,7 +2156,6 @@
       <c r="H135" s="9"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="7"/>
@@ -2317,7 +2168,6 @@
       <c r="H136" s="9"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="7"/>
@@ -2330,7 +2180,6 @@
       <c r="H137" s="9"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="7"/>
@@ -2343,7 +2192,6 @@
       <c r="H138" s="9"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="7"/>
@@ -2356,7 +2204,6 @@
       <c r="H139" s="9"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="7"/>
@@ -2369,7 +2216,6 @@
       <c r="H140" s="9"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="7"/>
@@ -2382,7 +2228,6 @@
       <c r="H141" s="9"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="7"/>
@@ -2395,7 +2240,6 @@
       <c r="H142" s="9"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="7"/>
@@ -2408,7 +2252,6 @@
       <c r="H143" s="9"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="7"/>
@@ -2421,7 +2264,6 @@
       <c r="H144" s="9"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="7"/>
@@ -2434,7 +2276,6 @@
       <c r="H145" s="9"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="7"/>
@@ -2447,7 +2288,6 @@
       <c r="H146" s="9"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="7"/>
@@ -2460,7 +2300,6 @@
       <c r="H147" s="9"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="7"/>
@@ -2473,7 +2312,6 @@
       <c r="H148" s="9"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="7"/>
@@ -2486,7 +2324,6 @@
       <c r="H149" s="9"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="7"/>
@@ -2499,7 +2336,6 @@
       <c r="H150" s="9"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="7"/>
@@ -2512,7 +2348,6 @@
       <c r="H151" s="9"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="7"/>
@@ -2525,7 +2360,6 @@
       <c r="H152" s="9"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="7"/>
@@ -2538,7 +2372,6 @@
       <c r="H153" s="9"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="7"/>
@@ -2551,7 +2384,6 @@
       <c r="H154" s="9"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="7"/>
@@ -2564,7 +2396,6 @@
       <c r="H155" s="9"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="7"/>
@@ -2577,7 +2408,6 @@
       <c r="H156" s="9"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="7"/>
@@ -2590,7 +2420,6 @@
       <c r="H157" s="9"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
-      <c r="K157" s="7"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="7"/>
@@ -2603,7 +2432,6 @@
       <c r="H158" s="9"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="7"/>
@@ -2616,7 +2444,6 @@
       <c r="H159" s="9"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="7"/>
@@ -2629,7 +2456,6 @@
       <c r="H160" s="9"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
-      <c r="K160" s="7"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="7"/>
@@ -2642,7 +2468,6 @@
       <c r="H161" s="9"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="7"/>
@@ -2655,7 +2480,6 @@
       <c r="H162" s="9"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="7"/>
@@ -2668,7 +2492,6 @@
       <c r="H163" s="9"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="7"/>
@@ -2681,7 +2504,6 @@
       <c r="H164" s="9"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="7"/>
@@ -2694,7 +2516,6 @@
       <c r="H165" s="9"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="7"/>
@@ -2707,7 +2528,6 @@
       <c r="H166" s="9"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-      <c r="K166" s="7"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="7"/>
@@ -2720,7 +2540,6 @@
       <c r="H167" s="9"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="7"/>
@@ -2733,7 +2552,6 @@
       <c r="H168" s="9"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="7"/>
@@ -2746,7 +2564,6 @@
       <c r="H169" s="9"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="7"/>
@@ -2759,7 +2576,6 @@
       <c r="H170" s="9"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="7"/>
@@ -2772,7 +2588,6 @@
       <c r="H171" s="9"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="7"/>
@@ -2785,7 +2600,6 @@
       <c r="H172" s="9"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="7"/>
@@ -2798,7 +2612,6 @@
       <c r="H173" s="9"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="7"/>
@@ -2811,7 +2624,6 @@
       <c r="H174" s="9"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="7"/>
@@ -2824,7 +2636,6 @@
       <c r="H175" s="9"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="7"/>
@@ -2837,7 +2648,6 @@
       <c r="H176" s="9"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="7"/>
@@ -2850,7 +2660,6 @@
       <c r="H177" s="9"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="7"/>
@@ -2863,7 +2672,6 @@
       <c r="H178" s="9"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="7"/>
@@ -2876,7 +2684,6 @@
       <c r="H179" s="9"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="7"/>
@@ -2889,7 +2696,6 @@
       <c r="H180" s="9"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="7"/>
@@ -2902,7 +2708,6 @@
       <c r="H181" s="9"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="7"/>
@@ -2915,7 +2720,6 @@
       <c r="H182" s="9"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="7"/>
@@ -2928,7 +2732,6 @@
       <c r="H183" s="9"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="7"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="7"/>
@@ -2941,7 +2744,6 @@
       <c r="H184" s="9"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="7"/>
@@ -2954,7 +2756,6 @@
       <c r="H185" s="9"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="7"/>
@@ -2967,7 +2768,6 @@
       <c r="H186" s="9"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="7"/>
@@ -2980,7 +2780,6 @@
       <c r="H187" s="9"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="7"/>
@@ -2993,7 +2792,6 @@
       <c r="H188" s="9"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="7"/>
@@ -3006,7 +2804,6 @@
       <c r="H189" s="9"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="7"/>
@@ -3019,7 +2816,6 @@
       <c r="H190" s="9"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="7"/>
@@ -3032,7 +2828,6 @@
       <c r="H191" s="9"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-      <c r="K191" s="7"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="7"/>
@@ -3045,7 +2840,6 @@
       <c r="H192" s="9"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="7"/>
@@ -3058,7 +2852,6 @@
       <c r="H193" s="9"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="7"/>
@@ -3071,7 +2864,6 @@
       <c r="H194" s="9"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
-      <c r="K194" s="7"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="7"/>
@@ -3084,7 +2876,6 @@
       <c r="H195" s="9"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
-      <c r="K195" s="7"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="7"/>
@@ -3097,7 +2888,6 @@
       <c r="H196" s="9"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-      <c r="K196" s="7"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="7"/>
@@ -3110,7 +2900,6 @@
       <c r="H197" s="9"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-      <c r="K197" s="7"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="7"/>
@@ -3123,7 +2912,6 @@
       <c r="H198" s="9"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="K198" s="7"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="7"/>
@@ -3136,7 +2924,6 @@
       <c r="H199" s="9"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-      <c r="K199" s="7"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="7"/>
@@ -3149,7 +2936,6 @@
       <c r="H200" s="9"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="7"/>
@@ -3162,7 +2948,6 @@
       <c r="H201" s="9"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="7"/>
@@ -3175,7 +2960,6 @@
       <c r="H202" s="9"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
-      <c r="K202" s="7"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="7"/>
@@ -3188,7 +2972,6 @@
       <c r="H203" s="9"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="7"/>
@@ -3201,7 +2984,6 @@
       <c r="H204" s="9"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="7"/>
@@ -3214,7 +2996,6 @@
       <c r="H205" s="9"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="K205" s="7"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="7"/>
@@ -3227,7 +3008,6 @@
       <c r="H206" s="9"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
-      <c r="K206" s="7"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="7"/>
@@ -3240,7 +3020,6 @@
       <c r="H207" s="9"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
-      <c r="K207" s="7"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="7"/>
@@ -3253,7 +3032,6 @@
       <c r="H208" s="9"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-      <c r="K208" s="7"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="7"/>
@@ -3266,7 +3044,6 @@
       <c r="H209" s="9"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
-      <c r="K209" s="7"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="7"/>
@@ -3279,7 +3056,6 @@
       <c r="H210" s="9"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
-      <c r="K210" s="7"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="7"/>
@@ -3292,7 +3068,6 @@
       <c r="H211" s="9"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
-      <c r="K211" s="7"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="7"/>
@@ -3305,7 +3080,6 @@
       <c r="H212" s="9"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
-      <c r="K212" s="7"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="7"/>
@@ -3318,7 +3092,6 @@
       <c r="H213" s="9"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
-      <c r="K213" s="7"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="7"/>
@@ -3331,7 +3104,6 @@
       <c r="H214" s="9"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
-      <c r="K214" s="7"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="7"/>
@@ -3344,7 +3116,6 @@
       <c r="H215" s="9"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
-      <c r="K215" s="7"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="7"/>
@@ -3357,7 +3128,6 @@
       <c r="H216" s="9"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
-      <c r="K216" s="7"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="7"/>
@@ -3370,7 +3140,6 @@
       <c r="H217" s="9"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
-      <c r="K217" s="7"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="7"/>
@@ -3383,7 +3152,6 @@
       <c r="H218" s="9"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="7"/>
@@ -3396,7 +3164,6 @@
       <c r="H219" s="9"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="7"/>
@@ -3409,7 +3176,6 @@
       <c r="H220" s="9"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-      <c r="K220" s="7"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="7"/>
@@ -3422,7 +3188,6 @@
       <c r="H221" s="9"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
-      <c r="K221" s="7"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="7"/>
@@ -3435,7 +3200,6 @@
       <c r="H222" s="9"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
-      <c r="K222" s="7"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="7"/>
@@ -3448,7 +3212,6 @@
       <c r="H223" s="9"/>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-      <c r="K223" s="7"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="7"/>
@@ -3461,7 +3224,6 @@
       <c r="H224" s="9"/>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
-      <c r="K224" s="7"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="7"/>
@@ -3474,7 +3236,6 @@
       <c r="H225" s="9"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
-      <c r="K225" s="7"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="7"/>
@@ -3487,7 +3248,6 @@
       <c r="H226" s="9"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
-      <c r="K226" s="7"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="7"/>
@@ -3500,7 +3260,6 @@
       <c r="H227" s="9"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
-      <c r="K227" s="7"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="7"/>
@@ -3513,7 +3272,6 @@
       <c r="H228" s="9"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="7"/>
@@ -3526,7 +3284,6 @@
       <c r="H229" s="9"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
-      <c r="K229" s="7"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="7"/>
@@ -3539,7 +3296,6 @@
       <c r="H230" s="9"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="7"/>
@@ -3552,7 +3308,6 @@
       <c r="H231" s="9"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
-      <c r="K231" s="7"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="7"/>
@@ -3565,7 +3320,6 @@
       <c r="H232" s="9"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
-      <c r="K232" s="7"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="7"/>
@@ -3578,7 +3332,6 @@
       <c r="H233" s="9"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="7"/>
@@ -3591,7 +3344,6 @@
       <c r="H234" s="9"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
-      <c r="K234" s="7"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="7"/>
@@ -3604,7 +3356,6 @@
       <c r="H235" s="9"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="7"/>
@@ -3617,7 +3368,6 @@
       <c r="H236" s="9"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
-      <c r="K236" s="7"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="7"/>
@@ -3630,7 +3380,6 @@
       <c r="H237" s="9"/>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="7"/>
@@ -3643,7 +3392,6 @@
       <c r="H238" s="9"/>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
-      <c r="K238" s="7"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="7"/>
@@ -3656,7 +3404,6 @@
       <c r="H239" s="9"/>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
-      <c r="K239" s="7"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="7"/>
@@ -3669,7 +3416,6 @@
       <c r="H240" s="9"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="7"/>
@@ -3682,7 +3428,6 @@
       <c r="H241" s="9"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="7"/>
@@ -3695,7 +3440,6 @@
       <c r="H242" s="9"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
-      <c r="K242" s="7"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="7"/>
@@ -3708,7 +3452,6 @@
       <c r="H243" s="9"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
-      <c r="K243" s="7"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="7"/>
@@ -3721,7 +3464,6 @@
       <c r="H244" s="9"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
-      <c r="K244" s="7"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="7"/>
@@ -3734,7 +3476,6 @@
       <c r="H245" s="9"/>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
-      <c r="K245" s="7"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="7"/>
@@ -3747,7 +3488,6 @@
       <c r="H246" s="9"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
-      <c r="K246" s="7"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="7"/>
@@ -3760,7 +3500,6 @@
       <c r="H247" s="9"/>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
-      <c r="K247" s="7"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="7"/>
@@ -3773,7 +3512,6 @@
       <c r="H248" s="9"/>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
-      <c r="K248" s="7"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="7"/>
@@ -3786,7 +3524,6 @@
       <c r="H249" s="9"/>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="7"/>
@@ -3799,7 +3536,6 @@
       <c r="H250" s="9"/>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="7"/>
@@ -3812,7 +3548,6 @@
       <c r="H251" s="9"/>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="7"/>
@@ -3825,7 +3560,6 @@
       <c r="H252" s="9"/>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="7"/>
@@ -3838,7 +3572,6 @@
       <c r="H253" s="9"/>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
-      <c r="K253" s="7"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="7"/>
@@ -3851,7 +3584,6 @@
       <c r="H254" s="9"/>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
-      <c r="K254" s="7"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="7"/>
@@ -3864,7 +3596,6 @@
       <c r="H255" s="9"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
-      <c r="K255" s="7"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="7"/>
@@ -3877,7 +3608,6 @@
       <c r="H256" s="9"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
-      <c r="K256" s="7"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="7"/>
@@ -3890,7 +3620,6 @@
       <c r="H257" s="9"/>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
-      <c r="K257" s="7"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="7"/>
@@ -3903,7 +3632,6 @@
       <c r="H258" s="9"/>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
-      <c r="K258" s="7"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="7"/>
@@ -3916,7 +3644,6 @@
       <c r="H259" s="9"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
-      <c r="K259" s="7"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="7"/>
@@ -3929,7 +3656,6 @@
       <c r="H260" s="9"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
-      <c r="K260" s="7"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="7"/>
@@ -3942,7 +3668,6 @@
       <c r="H261" s="9"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
-      <c r="K261" s="7"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="7"/>
@@ -3955,7 +3680,6 @@
       <c r="H262" s="9"/>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
-      <c r="K262" s="7"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="7"/>
@@ -3968,7 +3692,6 @@
       <c r="H263" s="9"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
-      <c r="K263" s="7"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="7"/>
@@ -3981,7 +3704,6 @@
       <c r="H264" s="9"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
-      <c r="K264" s="7"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="7"/>
@@ -3994,7 +3716,6 @@
       <c r="H265" s="9"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
-      <c r="K265" s="7"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="7"/>
@@ -4007,7 +3728,6 @@
       <c r="H266" s="9"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
-      <c r="K266" s="7"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="7"/>
@@ -4020,7 +3740,6 @@
       <c r="H267" s="9"/>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
-      <c r="K267" s="7"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="7"/>
@@ -4033,7 +3752,6 @@
       <c r="H268" s="9"/>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
-      <c r="K268" s="7"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="7"/>
@@ -4046,7 +3764,6 @@
       <c r="H269" s="9"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
-      <c r="K269" s="7"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="7"/>
@@ -4059,7 +3776,6 @@
       <c r="H270" s="9"/>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
-      <c r="K270" s="7"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="7"/>
@@ -4072,7 +3788,6 @@
       <c r="H271" s="9"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
-      <c r="K271" s="7"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="7"/>
@@ -4085,7 +3800,6 @@
       <c r="H272" s="9"/>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
-      <c r="K272" s="7"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="7"/>
@@ -4098,7 +3812,6 @@
       <c r="H273" s="9"/>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
-      <c r="K273" s="7"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="7"/>
@@ -4111,7 +3824,6 @@
       <c r="H274" s="9"/>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
-      <c r="K274" s="7"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="7"/>
@@ -4124,7 +3836,6 @@
       <c r="H275" s="9"/>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
-      <c r="K275" s="7"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="7"/>
@@ -4137,7 +3848,6 @@
       <c r="H276" s="9"/>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
-      <c r="K276" s="7"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="7"/>
@@ -4150,7 +3860,6 @@
       <c r="H277" s="9"/>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
-      <c r="K277" s="7"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="7"/>
@@ -4163,7 +3872,6 @@
       <c r="H278" s="9"/>
       <c r="I278" s="7"/>
       <c r="J278" s="7"/>
-      <c r="K278" s="7"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="7"/>
@@ -4176,7 +3884,6 @@
       <c r="H279" s="9"/>
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
-      <c r="K279" s="7"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="7"/>
@@ -4189,7 +3896,6 @@
       <c r="H280" s="9"/>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
-      <c r="K280" s="7"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="7"/>
@@ -4202,7 +3908,6 @@
       <c r="H281" s="9"/>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
-      <c r="K281" s="7"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="7"/>
@@ -4215,7 +3920,6 @@
       <c r="H282" s="9"/>
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
-      <c r="K282" s="7"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="7"/>
@@ -4228,7 +3932,6 @@
       <c r="H283" s="9"/>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
-      <c r="K283" s="7"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="7"/>
@@ -4241,7 +3944,6 @@
       <c r="H284" s="9"/>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
-      <c r="K284" s="7"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="7"/>
@@ -4254,7 +3956,6 @@
       <c r="H285" s="9"/>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
-      <c r="K285" s="7"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="7"/>
@@ -4267,7 +3968,6 @@
       <c r="H286" s="9"/>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
-      <c r="K286" s="7"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="7"/>
@@ -4280,7 +3980,6 @@
       <c r="H287" s="9"/>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
-      <c r="K287" s="7"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="7"/>
@@ -4293,7 +3992,6 @@
       <c r="H288" s="9"/>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
-      <c r="K288" s="7"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="7"/>
@@ -4306,7 +4004,6 @@
       <c r="H289" s="9"/>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
-      <c r="K289" s="7"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="7"/>
@@ -4319,7 +4016,6 @@
       <c r="H290" s="9"/>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
-      <c r="K290" s="7"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="7"/>
@@ -4332,7 +4028,6 @@
       <c r="H291" s="9"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
-      <c r="K291" s="7"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="7"/>
@@ -4345,7 +4040,6 @@
       <c r="H292" s="9"/>
       <c r="I292" s="7"/>
       <c r="J292" s="7"/>
-      <c r="K292" s="7"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="7"/>
@@ -4358,7 +4052,6 @@
       <c r="H293" s="9"/>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
-      <c r="K293" s="7"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="7"/>
@@ -4371,7 +4064,6 @@
       <c r="H294" s="9"/>
       <c r="I294" s="7"/>
       <c r="J294" s="7"/>
-      <c r="K294" s="7"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="7"/>
@@ -4384,7 +4076,6 @@
       <c r="H295" s="9"/>
       <c r="I295" s="7"/>
       <c r="J295" s="7"/>
-      <c r="K295" s="7"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="7"/>
@@ -4397,7 +4088,6 @@
       <c r="H296" s="9"/>
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
-      <c r="K296" s="7"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="7"/>
@@ -4410,7 +4100,6 @@
       <c r="H297" s="9"/>
       <c r="I297" s="7"/>
       <c r="J297" s="7"/>
-      <c r="K297" s="7"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="7"/>
@@ -4423,7 +4112,6 @@
       <c r="H298" s="9"/>
       <c r="I298" s="7"/>
       <c r="J298" s="7"/>
-      <c r="K298" s="7"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="7"/>
@@ -4436,7 +4124,6 @@
       <c r="H299" s="9"/>
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
-      <c r="K299" s="7"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="7"/>
@@ -4449,7 +4136,6 @@
       <c r="H300" s="9"/>
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
-      <c r="K300" s="7"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="7"/>
@@ -4462,7 +4148,6 @@
       <c r="H301" s="9"/>
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
-      <c r="K301" s="7"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="7"/>
@@ -4475,7 +4160,6 @@
       <c r="H302" s="9"/>
       <c r="I302" s="7"/>
       <c r="J302" s="7"/>
-      <c r="K302" s="7"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="7"/>
@@ -4488,7 +4172,6 @@
       <c r="H303" s="9"/>
       <c r="I303" s="7"/>
       <c r="J303" s="7"/>
-      <c r="K303" s="7"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="7"/>
@@ -4501,7 +4184,6 @@
       <c r="H304" s="9"/>
       <c r="I304" s="7"/>
       <c r="J304" s="7"/>
-      <c r="K304" s="7"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="7"/>
@@ -4514,7 +4196,6 @@
       <c r="H305" s="9"/>
       <c r="I305" s="7"/>
       <c r="J305" s="7"/>
-      <c r="K305" s="7"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="7"/>
@@ -4527,7 +4208,6 @@
       <c r="H306" s="9"/>
       <c r="I306" s="7"/>
       <c r="J306" s="7"/>
-      <c r="K306" s="7"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="7"/>
@@ -4540,7 +4220,6 @@
       <c r="H307" s="9"/>
       <c r="I307" s="7"/>
       <c r="J307" s="7"/>
-      <c r="K307" s="7"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="7"/>
@@ -4553,7 +4232,6 @@
       <c r="H308" s="9"/>
       <c r="I308" s="7"/>
       <c r="J308" s="7"/>
-      <c r="K308" s="7"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="7"/>
@@ -4566,7 +4244,6 @@
       <c r="H309" s="9"/>
       <c r="I309" s="7"/>
       <c r="J309" s="7"/>
-      <c r="K309" s="7"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="7"/>
@@ -4579,7 +4256,6 @@
       <c r="H310" s="9"/>
       <c r="I310" s="7"/>
       <c r="J310" s="7"/>
-      <c r="K310" s="7"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="7"/>
@@ -4592,7 +4268,6 @@
       <c r="H311" s="9"/>
       <c r="I311" s="7"/>
       <c r="J311" s="7"/>
-      <c r="K311" s="7"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="7"/>
@@ -4605,7 +4280,6 @@
       <c r="H312" s="9"/>
       <c r="I312" s="7"/>
       <c r="J312" s="7"/>
-      <c r="K312" s="7"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="7"/>
@@ -4618,7 +4292,6 @@
       <c r="H313" s="9"/>
       <c r="I313" s="7"/>
       <c r="J313" s="7"/>
-      <c r="K313" s="7"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="7"/>
@@ -4631,7 +4304,6 @@
       <c r="H314" s="9"/>
       <c r="I314" s="7"/>
       <c r="J314" s="7"/>
-      <c r="K314" s="7"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="7"/>
@@ -4644,7 +4316,6 @@
       <c r="H315" s="9"/>
       <c r="I315" s="7"/>
       <c r="J315" s="7"/>
-      <c r="K315" s="7"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="7"/>
@@ -4657,7 +4328,6 @@
       <c r="H316" s="9"/>
       <c r="I316" s="7"/>
       <c r="J316" s="7"/>
-      <c r="K316" s="7"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="7"/>
@@ -4670,7 +4340,6 @@
       <c r="H317" s="9"/>
       <c r="I317" s="7"/>
       <c r="J317" s="7"/>
-      <c r="K317" s="7"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="7"/>
@@ -4683,7 +4352,6 @@
       <c r="H318" s="9"/>
       <c r="I318" s="7"/>
       <c r="J318" s="7"/>
-      <c r="K318" s="7"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="7"/>
@@ -4696,7 +4364,6 @@
       <c r="H319" s="9"/>
       <c r="I319" s="7"/>
       <c r="J319" s="7"/>
-      <c r="K319" s="7"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="7"/>
@@ -4709,7 +4376,6 @@
       <c r="H320" s="9"/>
       <c r="I320" s="7"/>
       <c r="J320" s="7"/>
-      <c r="K320" s="7"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="7"/>
@@ -4722,7 +4388,6 @@
       <c r="H321" s="9"/>
       <c r="I321" s="7"/>
       <c r="J321" s="7"/>
-      <c r="K321" s="7"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="7"/>
@@ -4735,7 +4400,6 @@
       <c r="H322" s="9"/>
       <c r="I322" s="7"/>
       <c r="J322" s="7"/>
-      <c r="K322" s="7"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="7"/>
@@ -4748,7 +4412,6 @@
       <c r="H323" s="9"/>
       <c r="I323" s="7"/>
       <c r="J323" s="7"/>
-      <c r="K323" s="7"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="7"/>
@@ -4761,7 +4424,6 @@
       <c r="H324" s="9"/>
       <c r="I324" s="7"/>
       <c r="J324" s="7"/>
-      <c r="K324" s="7"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="7"/>
@@ -4774,7 +4436,6 @@
       <c r="H325" s="9"/>
       <c r="I325" s="7"/>
       <c r="J325" s="7"/>
-      <c r="K325" s="7"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="7"/>
@@ -4787,7 +4448,6 @@
       <c r="H326" s="9"/>
       <c r="I326" s="7"/>
       <c r="J326" s="7"/>
-      <c r="K326" s="7"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="7"/>
@@ -4800,7 +4460,6 @@
       <c r="H327" s="9"/>
       <c r="I327" s="7"/>
       <c r="J327" s="7"/>
-      <c r="K327" s="7"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="7"/>
@@ -4813,7 +4472,6 @@
       <c r="H328" s="9"/>
       <c r="I328" s="7"/>
       <c r="J328" s="7"/>
-      <c r="K328" s="7"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="7"/>
@@ -4826,7 +4484,6 @@
       <c r="H329" s="9"/>
       <c r="I329" s="7"/>
       <c r="J329" s="7"/>
-      <c r="K329" s="7"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="7"/>
@@ -4839,7 +4496,6 @@
       <c r="H330" s="9"/>
       <c r="I330" s="7"/>
       <c r="J330" s="7"/>
-      <c r="K330" s="7"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="7"/>
@@ -4852,7 +4508,6 @@
       <c r="H331" s="9"/>
       <c r="I331" s="7"/>
       <c r="J331" s="7"/>
-      <c r="K331" s="7"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="7"/>
@@ -4865,7 +4520,6 @@
       <c r="H332" s="9"/>
       <c r="I332" s="7"/>
       <c r="J332" s="7"/>
-      <c r="K332" s="7"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="7"/>
@@ -4878,7 +4532,6 @@
       <c r="H333" s="9"/>
       <c r="I333" s="7"/>
       <c r="J333" s="7"/>
-      <c r="K333" s="7"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="7"/>
@@ -4891,7 +4544,6 @@
       <c r="H334" s="9"/>
       <c r="I334" s="7"/>
       <c r="J334" s="7"/>
-      <c r="K334" s="7"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="7"/>
@@ -4904,7 +4556,6 @@
       <c r="H335" s="9"/>
       <c r="I335" s="7"/>
       <c r="J335" s="7"/>
-      <c r="K335" s="7"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="7"/>
@@ -4917,7 +4568,6 @@
       <c r="H336" s="9"/>
       <c r="I336" s="7"/>
       <c r="J336" s="7"/>
-      <c r="K336" s="7"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="7"/>
@@ -4930,7 +4580,6 @@
       <c r="H337" s="9"/>
       <c r="I337" s="7"/>
       <c r="J337" s="7"/>
-      <c r="K337" s="7"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="7"/>
@@ -4943,7 +4592,6 @@
       <c r="H338" s="9"/>
       <c r="I338" s="7"/>
       <c r="J338" s="7"/>
-      <c r="K338" s="7"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="7"/>
@@ -4956,7 +4604,6 @@
       <c r="H339" s="9"/>
       <c r="I339" s="7"/>
       <c r="J339" s="7"/>
-      <c r="K339" s="7"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="7"/>
@@ -4969,7 +4616,6 @@
       <c r="H340" s="9"/>
       <c r="I340" s="7"/>
       <c r="J340" s="7"/>
-      <c r="K340" s="7"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="7"/>
@@ -4982,7 +4628,6 @@
       <c r="H341" s="9"/>
       <c r="I341" s="7"/>
       <c r="J341" s="7"/>
-      <c r="K341" s="7"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="7"/>
@@ -4995,7 +4640,6 @@
       <c r="H342" s="9"/>
       <c r="I342" s="7"/>
       <c r="J342" s="7"/>
-      <c r="K342" s="7"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="7"/>
@@ -5008,7 +4652,6 @@
       <c r="H343" s="9"/>
       <c r="I343" s="7"/>
       <c r="J343" s="7"/>
-      <c r="K343" s="7"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="7"/>
@@ -5021,7 +4664,6 @@
       <c r="H344" s="9"/>
       <c r="I344" s="7"/>
       <c r="J344" s="7"/>
-      <c r="K344" s="7"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="7"/>
@@ -5034,7 +4676,6 @@
       <c r="H345" s="9"/>
       <c r="I345" s="7"/>
       <c r="J345" s="7"/>
-      <c r="K345" s="7"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="7"/>
@@ -5047,7 +4688,6 @@
       <c r="H346" s="9"/>
       <c r="I346" s="7"/>
       <c r="J346" s="7"/>
-      <c r="K346" s="7"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="7"/>
@@ -5060,7 +4700,6 @@
       <c r="H347" s="9"/>
       <c r="I347" s="7"/>
       <c r="J347" s="7"/>
-      <c r="K347" s="7"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="7"/>
@@ -5073,7 +4712,6 @@
       <c r="H348" s="9"/>
       <c r="I348" s="7"/>
       <c r="J348" s="7"/>
-      <c r="K348" s="7"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="7"/>
@@ -5086,7 +4724,6 @@
       <c r="H349" s="9"/>
       <c r="I349" s="7"/>
       <c r="J349" s="7"/>
-      <c r="K349" s="7"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="7"/>
@@ -5099,7 +4736,6 @@
       <c r="H350" s="9"/>
       <c r="I350" s="7"/>
       <c r="J350" s="7"/>
-      <c r="K350" s="7"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="7"/>
@@ -5112,7 +4748,6 @@
       <c r="H351" s="9"/>
       <c r="I351" s="7"/>
       <c r="J351" s="7"/>
-      <c r="K351" s="7"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="7"/>
@@ -5125,7 +4760,6 @@
       <c r="H352" s="9"/>
       <c r="I352" s="7"/>
       <c r="J352" s="7"/>
-      <c r="K352" s="7"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="7"/>
@@ -5138,7 +4772,6 @@
       <c r="H353" s="9"/>
       <c r="I353" s="7"/>
       <c r="J353" s="7"/>
-      <c r="K353" s="7"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="7"/>
@@ -5151,7 +4784,6 @@
       <c r="H354" s="9"/>
       <c r="I354" s="7"/>
       <c r="J354" s="7"/>
-      <c r="K354" s="7"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="7"/>
@@ -5164,7 +4796,6 @@
       <c r="H355" s="9"/>
       <c r="I355" s="7"/>
       <c r="J355" s="7"/>
-      <c r="K355" s="7"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="7"/>
@@ -5177,7 +4808,6 @@
       <c r="H356" s="9"/>
       <c r="I356" s="7"/>
       <c r="J356" s="7"/>
-      <c r="K356" s="7"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="7"/>
@@ -5190,7 +4820,6 @@
       <c r="H357" s="9"/>
       <c r="I357" s="7"/>
       <c r="J357" s="7"/>
-      <c r="K357" s="7"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="7"/>
@@ -5203,7 +4832,6 @@
       <c r="H358" s="9"/>
       <c r="I358" s="7"/>
       <c r="J358" s="7"/>
-      <c r="K358" s="7"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="7"/>
@@ -5216,7 +4844,6 @@
       <c r="H359" s="9"/>
       <c r="I359" s="7"/>
       <c r="J359" s="7"/>
-      <c r="K359" s="7"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="7"/>
@@ -5229,7 +4856,6 @@
       <c r="H360" s="9"/>
       <c r="I360" s="7"/>
       <c r="J360" s="7"/>
-      <c r="K360" s="7"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="7"/>
@@ -5242,7 +4868,6 @@
       <c r="H361" s="9"/>
       <c r="I361" s="7"/>
       <c r="J361" s="7"/>
-      <c r="K361" s="7"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="7"/>
@@ -5255,7 +4880,6 @@
       <c r="H362" s="9"/>
       <c r="I362" s="7"/>
       <c r="J362" s="7"/>
-      <c r="K362" s="7"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="7"/>
@@ -5268,7 +4892,6 @@
       <c r="H363" s="9"/>
       <c r="I363" s="7"/>
       <c r="J363" s="7"/>
-      <c r="K363" s="7"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="7"/>
@@ -5281,7 +4904,6 @@
       <c r="H364" s="9"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7"/>
-      <c r="K364" s="7"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="7"/>
@@ -5294,7 +4916,6 @@
       <c r="H365" s="9"/>
       <c r="I365" s="7"/>
       <c r="J365" s="7"/>
-      <c r="K365" s="7"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="7"/>
@@ -5307,7 +4928,6 @@
       <c r="H366" s="9"/>
       <c r="I366" s="7"/>
       <c r="J366" s="7"/>
-      <c r="K366" s="7"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="7"/>
@@ -5320,7 +4940,6 @@
       <c r="H367" s="9"/>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
-      <c r="K367" s="7"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="7"/>
@@ -5333,7 +4952,6 @@
       <c r="H368" s="9"/>
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
-      <c r="K368" s="7"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="7"/>
@@ -5346,7 +4964,6 @@
       <c r="H369" s="9"/>
       <c r="I369" s="7"/>
       <c r="J369" s="7"/>
-      <c r="K369" s="7"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="7"/>
@@ -5359,7 +4976,6 @@
       <c r="H370" s="9"/>
       <c r="I370" s="7"/>
       <c r="J370" s="7"/>
-      <c r="K370" s="7"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="7"/>
@@ -5372,7 +4988,6 @@
       <c r="H371" s="9"/>
       <c r="I371" s="7"/>
       <c r="J371" s="7"/>
-      <c r="K371" s="7"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="7"/>
@@ -5385,7 +5000,6 @@
       <c r="H372" s="9"/>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
-      <c r="K372" s="7"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="7"/>
@@ -5398,7 +5012,6 @@
       <c r="H373" s="9"/>
       <c r="I373" s="7"/>
       <c r="J373" s="7"/>
-      <c r="K373" s="7"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="7"/>
@@ -5411,7 +5024,6 @@
       <c r="H374" s="9"/>
       <c r="I374" s="7"/>
       <c r="J374" s="7"/>
-      <c r="K374" s="7"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="7"/>
@@ -5424,7 +5036,6 @@
       <c r="H375" s="9"/>
       <c r="I375" s="7"/>
       <c r="J375" s="7"/>
-      <c r="K375" s="7"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="7"/>
@@ -5437,7 +5048,6 @@
       <c r="H376" s="9"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7"/>
-      <c r="K376" s="7"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="7"/>
@@ -5450,7 +5060,6 @@
       <c r="H377" s="9"/>
       <c r="I377" s="7"/>
       <c r="J377" s="7"/>
-      <c r="K377" s="7"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="7"/>
@@ -5463,7 +5072,6 @@
       <c r="H378" s="9"/>
       <c r="I378" s="7"/>
       <c r="J378" s="7"/>
-      <c r="K378" s="7"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="7"/>
@@ -5476,7 +5084,6 @@
       <c r="H379" s="9"/>
       <c r="I379" s="7"/>
       <c r="J379" s="7"/>
-      <c r="K379" s="7"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="7"/>
@@ -5489,7 +5096,6 @@
       <c r="H380" s="9"/>
       <c r="I380" s="7"/>
       <c r="J380" s="7"/>
-      <c r="K380" s="7"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="7"/>
@@ -5502,7 +5108,6 @@
       <c r="H381" s="9"/>
       <c r="I381" s="7"/>
       <c r="J381" s="7"/>
-      <c r="K381" s="7"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="7"/>
@@ -5515,7 +5120,6 @@
       <c r="H382" s="9"/>
       <c r="I382" s="7"/>
       <c r="J382" s="7"/>
-      <c r="K382" s="7"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="7"/>
@@ -5528,7 +5132,6 @@
       <c r="H383" s="9"/>
       <c r="I383" s="7"/>
       <c r="J383" s="7"/>
-      <c r="K383" s="7"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="7"/>
@@ -5541,7 +5144,6 @@
       <c r="H384" s="9"/>
       <c r="I384" s="7"/>
       <c r="J384" s="7"/>
-      <c r="K384" s="7"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="7"/>
@@ -5554,7 +5156,6 @@
       <c r="H385" s="9"/>
       <c r="I385" s="7"/>
       <c r="J385" s="7"/>
-      <c r="K385" s="7"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="7"/>
@@ -5567,7 +5168,6 @@
       <c r="H386" s="9"/>
       <c r="I386" s="7"/>
       <c r="J386" s="7"/>
-      <c r="K386" s="7"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="7"/>
@@ -5580,7 +5180,6 @@
       <c r="H387" s="9"/>
       <c r="I387" s="7"/>
       <c r="J387" s="7"/>
-      <c r="K387" s="7"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="7"/>
@@ -5593,7 +5192,6 @@
       <c r="H388" s="9"/>
       <c r="I388" s="7"/>
       <c r="J388" s="7"/>
-      <c r="K388" s="7"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="7"/>
@@ -5606,7 +5204,6 @@
       <c r="H389" s="9"/>
       <c r="I389" s="7"/>
       <c r="J389" s="7"/>
-      <c r="K389" s="7"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="7"/>
@@ -5619,7 +5216,6 @@
       <c r="H390" s="9"/>
       <c r="I390" s="7"/>
       <c r="J390" s="7"/>
-      <c r="K390" s="7"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="7"/>
@@ -5632,7 +5228,6 @@
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
       <c r="J391" s="7"/>
-      <c r="K391" s="7"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="7"/>
@@ -5645,7 +5240,6 @@
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
       <c r="J392" s="7"/>
-      <c r="K392" s="7"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="7"/>
@@ -5658,7 +5252,6 @@
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
       <c r="J393" s="7"/>
-      <c r="K393" s="7"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="7"/>
@@ -5671,7 +5264,6 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
       <c r="J394" s="7"/>
-      <c r="K394" s="7"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="7"/>
@@ -5684,7 +5276,6 @@
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
       <c r="J395" s="7"/>
-      <c r="K395" s="7"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="7"/>
@@ -5697,7 +5288,6 @@
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
       <c r="J396" s="7"/>
-      <c r="K396" s="7"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="7"/>
@@ -5710,7 +5300,6 @@
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
       <c r="J397" s="7"/>
-      <c r="K397" s="7"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="7"/>
@@ -5723,7 +5312,6 @@
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
       <c r="J398" s="7"/>
-      <c r="K398" s="7"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="7"/>
@@ -5736,7 +5324,6 @@
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
       <c r="J399" s="7"/>
-      <c r="K399" s="7"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="7"/>
@@ -5749,7 +5336,6 @@
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
       <c r="J400" s="7"/>
-      <c r="K400" s="7"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="7"/>
@@ -5762,7 +5348,6 @@
       <c r="H401" s="7"/>
       <c r="I401" s="7"/>
       <c r="J401" s="7"/>
-      <c r="K401" s="7"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="7"/>
@@ -5775,7 +5360,6 @@
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
       <c r="J402" s="7"/>
-      <c r="K402" s="7"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="7"/>
@@ -5788,7 +5372,6 @@
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
       <c r="J403" s="7"/>
-      <c r="K403" s="7"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="7"/>
@@ -5801,7 +5384,6 @@
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
       <c r="J404" s="7"/>
-      <c r="K404" s="7"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="7"/>
@@ -5814,7 +5396,6 @@
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
       <c r="J405" s="7"/>
-      <c r="K405" s="7"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="7"/>
@@ -5827,7 +5408,6 @@
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
       <c r="J406" s="7"/>
-      <c r="K406" s="7"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="7"/>
@@ -5840,7 +5420,6 @@
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
       <c r="J407" s="7"/>
-      <c r="K407" s="7"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="7"/>
@@ -5853,7 +5432,6 @@
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
       <c r="J408" s="7"/>
-      <c r="K408" s="7"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="7"/>
@@ -5866,7 +5444,6 @@
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
       <c r="J409" s="7"/>
-      <c r="K409" s="7"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="7"/>
@@ -5879,7 +5456,6 @@
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
       <c r="J410" s="7"/>
-      <c r="K410" s="7"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="7"/>
@@ -5892,7 +5468,6 @@
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
       <c r="J411" s="7"/>
-      <c r="K411" s="7"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="7"/>
@@ -5905,7 +5480,6 @@
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
       <c r="J412" s="7"/>
-      <c r="K412" s="7"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="7"/>
@@ -5918,7 +5492,6 @@
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
       <c r="J413" s="7"/>
-      <c r="K413" s="7"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="7"/>
@@ -5931,7 +5504,6 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
       <c r="J414" s="7"/>
-      <c r="K414" s="7"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="7"/>
@@ -5944,7 +5516,6 @@
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
       <c r="J415" s="7"/>
-      <c r="K415" s="7"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="7"/>
@@ -5957,7 +5528,6 @@
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
       <c r="J416" s="7"/>
-      <c r="K416" s="7"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="7"/>
@@ -5970,7 +5540,6 @@
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
       <c r="J417" s="7"/>
-      <c r="K417" s="7"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="7"/>
@@ -5983,7 +5552,6 @@
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
       <c r="J418" s="7"/>
-      <c r="K418" s="7"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="7"/>
@@ -5996,7 +5564,6 @@
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
       <c r="J419" s="7"/>
-      <c r="K419" s="7"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="7"/>
@@ -6009,7 +5576,6 @@
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
       <c r="J420" s="7"/>
-      <c r="K420" s="7"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="7"/>
@@ -6022,7 +5588,6 @@
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
       <c r="J421" s="7"/>
-      <c r="K421" s="7"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="7"/>
@@ -6035,7 +5600,6 @@
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
       <c r="J422" s="7"/>
-      <c r="K422" s="7"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="7"/>
@@ -6048,7 +5612,6 @@
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
-      <c r="K423" s="7"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="7"/>
@@ -6061,7 +5624,6 @@
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
       <c r="J424" s="7"/>
-      <c r="K424" s="7"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="7"/>
@@ -6074,7 +5636,6 @@
       <c r="H425" s="7"/>
       <c r="I425" s="7"/>
       <c r="J425" s="7"/>
-      <c r="K425" s="7"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="7"/>
@@ -6087,7 +5648,6 @@
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
       <c r="J426" s="7"/>
-      <c r="K426" s="7"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="7"/>
@@ -6100,7 +5660,6 @@
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
       <c r="J427" s="7"/>
-      <c r="K427" s="7"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="7"/>
@@ -6113,7 +5672,6 @@
       <c r="H428" s="7"/>
       <c r="I428" s="7"/>
       <c r="J428" s="7"/>
-      <c r="K428" s="7"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="7"/>
@@ -6126,7 +5684,6 @@
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
       <c r="J429" s="7"/>
-      <c r="K429" s="7"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="7"/>
@@ -6139,7 +5696,6 @@
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
       <c r="J430" s="7"/>
-      <c r="K430" s="7"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="7"/>
@@ -6152,7 +5708,6 @@
       <c r="H431" s="7"/>
       <c r="I431" s="7"/>
       <c r="J431" s="7"/>
-      <c r="K431" s="7"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="7"/>
@@ -6165,7 +5720,6 @@
       <c r="H432" s="7"/>
       <c r="I432" s="7"/>
       <c r="J432" s="7"/>
-      <c r="K432" s="7"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="7"/>
@@ -6178,7 +5732,6 @@
       <c r="H433" s="7"/>
       <c r="I433" s="7"/>
       <c r="J433" s="7"/>
-      <c r="K433" s="7"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="7"/>
@@ -6191,7 +5744,6 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
       <c r="J434" s="7"/>
-      <c r="K434" s="7"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="7"/>
@@ -6204,7 +5756,6 @@
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
       <c r="J435" s="7"/>
-      <c r="K435" s="7"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="7"/>
@@ -6217,7 +5768,6 @@
       <c r="H436" s="7"/>
       <c r="I436" s="7"/>
       <c r="J436" s="7"/>
-      <c r="K436" s="7"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="7"/>
@@ -6230,7 +5780,6 @@
       <c r="H437" s="7"/>
       <c r="I437" s="7"/>
       <c r="J437" s="7"/>
-      <c r="K437" s="7"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="7"/>
@@ -6243,7 +5792,6 @@
       <c r="H438" s="7"/>
       <c r="I438" s="7"/>
       <c r="J438" s="7"/>
-      <c r="K438" s="7"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="7"/>
@@ -6256,7 +5804,6 @@
       <c r="H439" s="7"/>
       <c r="I439" s="7"/>
       <c r="J439" s="7"/>
-      <c r="K439" s="7"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="7"/>
@@ -6269,7 +5816,6 @@
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
       <c r="J440" s="7"/>
-      <c r="K440" s="7"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="7"/>
@@ -6282,7 +5828,6 @@
       <c r="H441" s="7"/>
       <c r="I441" s="7"/>
       <c r="J441" s="7"/>
-      <c r="K441" s="7"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="7"/>
@@ -6295,7 +5840,6 @@
       <c r="H442" s="7"/>
       <c r="I442" s="7"/>
       <c r="J442" s="7"/>
-      <c r="K442" s="7"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="7"/>
@@ -6308,7 +5852,6 @@
       <c r="H443" s="7"/>
       <c r="I443" s="7"/>
       <c r="J443" s="7"/>
-      <c r="K443" s="7"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="7"/>
@@ -6321,7 +5864,6 @@
       <c r="H444" s="7"/>
       <c r="I444" s="7"/>
       <c r="J444" s="7"/>
-      <c r="K444" s="7"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="7"/>
@@ -6334,7 +5876,6 @@
       <c r="H445" s="7"/>
       <c r="I445" s="7"/>
       <c r="J445" s="7"/>
-      <c r="K445" s="7"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="7"/>
@@ -6347,7 +5888,6 @@
       <c r="H446" s="7"/>
       <c r="I446" s="7"/>
       <c r="J446" s="7"/>
-      <c r="K446" s="7"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="7"/>
@@ -6360,7 +5900,6 @@
       <c r="H447" s="7"/>
       <c r="I447" s="7"/>
       <c r="J447" s="7"/>
-      <c r="K447" s="7"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="7"/>
@@ -6373,7 +5912,6 @@
       <c r="H448" s="7"/>
       <c r="I448" s="7"/>
       <c r="J448" s="7"/>
-      <c r="K448" s="7"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="7"/>
@@ -6386,7 +5924,6 @@
       <c r="H449" s="7"/>
       <c r="I449" s="7"/>
       <c r="J449" s="7"/>
-      <c r="K449" s="7"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="7"/>
@@ -6399,7 +5936,6 @@
       <c r="H450" s="7"/>
       <c r="I450" s="7"/>
       <c r="J450" s="7"/>
-      <c r="K450" s="7"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="7"/>
@@ -6412,7 +5948,6 @@
       <c r="H451" s="7"/>
       <c r="I451" s="7"/>
       <c r="J451" s="7"/>
-      <c r="K451" s="7"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="7"/>
@@ -6425,7 +5960,6 @@
       <c r="H452" s="7"/>
       <c r="I452" s="7"/>
       <c r="J452" s="7"/>
-      <c r="K452" s="7"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="7"/>
@@ -6438,7 +5972,6 @@
       <c r="H453" s="7"/>
       <c r="I453" s="7"/>
       <c r="J453" s="7"/>
-      <c r="K453" s="7"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="7"/>
@@ -6451,7 +5984,6 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
       <c r="J454" s="7"/>
-      <c r="K454" s="7"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="7"/>
@@ -6464,7 +5996,6 @@
       <c r="H455" s="7"/>
       <c r="I455" s="7"/>
       <c r="J455" s="7"/>
-      <c r="K455" s="7"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="7"/>
@@ -6477,7 +6008,6 @@
       <c r="H456" s="7"/>
       <c r="I456" s="7"/>
       <c r="J456" s="7"/>
-      <c r="K456" s="7"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="7"/>
@@ -6490,7 +6020,6 @@
       <c r="H457" s="7"/>
       <c r="I457" s="7"/>
       <c r="J457" s="7"/>
-      <c r="K457" s="7"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="7"/>
@@ -6503,7 +6032,6 @@
       <c r="H458" s="7"/>
       <c r="I458" s="7"/>
       <c r="J458" s="7"/>
-      <c r="K458" s="7"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="7"/>
@@ -6516,7 +6044,6 @@
       <c r="H459" s="7"/>
       <c r="I459" s="7"/>
       <c r="J459" s="7"/>
-      <c r="K459" s="7"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="7"/>
@@ -6529,7 +6056,6 @@
       <c r="H460" s="7"/>
       <c r="I460" s="7"/>
       <c r="J460" s="7"/>
-      <c r="K460" s="7"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="7"/>
@@ -6542,7 +6068,6 @@
       <c r="H461" s="7"/>
       <c r="I461" s="7"/>
       <c r="J461" s="7"/>
-      <c r="K461" s="7"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="7"/>
@@ -6555,7 +6080,6 @@
       <c r="H462" s="7"/>
       <c r="I462" s="7"/>
       <c r="J462" s="7"/>
-      <c r="K462" s="7"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="7"/>
@@ -6568,7 +6092,6 @@
       <c r="H463" s="7"/>
       <c r="I463" s="7"/>
       <c r="J463" s="7"/>
-      <c r="K463" s="7"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="7"/>
@@ -6581,7 +6104,6 @@
       <c r="H464" s="7"/>
       <c r="I464" s="7"/>
       <c r="J464" s="7"/>
-      <c r="K464" s="7"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="7"/>
@@ -6594,7 +6116,6 @@
       <c r="H465" s="7"/>
       <c r="I465" s="7"/>
       <c r="J465" s="7"/>
-      <c r="K465" s="7"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="7"/>
@@ -6607,7 +6128,6 @@
       <c r="H466" s="7"/>
       <c r="I466" s="7"/>
       <c r="J466" s="7"/>
-      <c r="K466" s="7"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="7"/>
@@ -6620,7 +6140,6 @@
       <c r="H467" s="7"/>
       <c r="I467" s="7"/>
       <c r="J467" s="7"/>
-      <c r="K467" s="7"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="7"/>
@@ -6633,7 +6152,6 @@
       <c r="H468" s="7"/>
       <c r="I468" s="7"/>
       <c r="J468" s="7"/>
-      <c r="K468" s="7"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="7"/>
@@ -6646,7 +6164,6 @@
       <c r="H469" s="7"/>
       <c r="I469" s="7"/>
       <c r="J469" s="7"/>
-      <c r="K469" s="7"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="7"/>
@@ -6659,7 +6176,6 @@
       <c r="H470" s="7"/>
       <c r="I470" s="7"/>
       <c r="J470" s="7"/>
-      <c r="K470" s="7"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="7"/>
@@ -6672,7 +6188,6 @@
       <c r="H471" s="7"/>
       <c r="I471" s="7"/>
       <c r="J471" s="7"/>
-      <c r="K471" s="7"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="7"/>
@@ -6685,7 +6200,6 @@
       <c r="H472" s="7"/>
       <c r="I472" s="7"/>
       <c r="J472" s="7"/>
-      <c r="K472" s="7"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="7"/>
@@ -6698,7 +6212,6 @@
       <c r="H473" s="7"/>
       <c r="I473" s="7"/>
       <c r="J473" s="7"/>
-      <c r="K473" s="7"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="7"/>
@@ -6711,7 +6224,6 @@
       <c r="H474" s="7"/>
       <c r="I474" s="7"/>
       <c r="J474" s="7"/>
-      <c r="K474" s="7"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="7"/>
@@ -6724,7 +6236,6 @@
       <c r="H475" s="7"/>
       <c r="I475" s="7"/>
       <c r="J475" s="7"/>
-      <c r="K475" s="7"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="7"/>
@@ -6737,7 +6248,6 @@
       <c r="H476" s="7"/>
       <c r="I476" s="7"/>
       <c r="J476" s="7"/>
-      <c r="K476" s="7"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="7"/>
@@ -6750,7 +6260,6 @@
       <c r="H477" s="7"/>
       <c r="I477" s="7"/>
       <c r="J477" s="7"/>
-      <c r="K477" s="7"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="7"/>
@@ -6763,7 +6272,6 @@
       <c r="H478" s="7"/>
       <c r="I478" s="7"/>
       <c r="J478" s="7"/>
-      <c r="K478" s="7"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="7"/>
@@ -6776,7 +6284,6 @@
       <c r="H479" s="7"/>
       <c r="I479" s="7"/>
       <c r="J479" s="7"/>
-      <c r="K479" s="7"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="7"/>
@@ -6789,7 +6296,6 @@
       <c r="H480" s="7"/>
       <c r="I480" s="7"/>
       <c r="J480" s="7"/>
-      <c r="K480" s="7"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="7"/>
@@ -6802,7 +6308,6 @@
       <c r="H481" s="7"/>
       <c r="I481" s="7"/>
       <c r="J481" s="7"/>
-      <c r="K481" s="7"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="7"/>
@@ -6815,7 +6320,6 @@
       <c r="H482" s="7"/>
       <c r="I482" s="7"/>
       <c r="J482" s="7"/>
-      <c r="K482" s="7"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="7"/>
@@ -6828,7 +6332,6 @@
       <c r="H483" s="7"/>
       <c r="I483" s="7"/>
       <c r="J483" s="7"/>
-      <c r="K483" s="7"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="7"/>
@@ -6841,7 +6344,6 @@
       <c r="H484" s="7"/>
       <c r="I484" s="7"/>
       <c r="J484" s="7"/>
-      <c r="K484" s="7"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="7"/>
@@ -6854,7 +6356,6 @@
       <c r="H485" s="7"/>
       <c r="I485" s="7"/>
       <c r="J485" s="7"/>
-      <c r="K485" s="7"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="7"/>
@@ -6867,7 +6368,6 @@
       <c r="H486" s="7"/>
       <c r="I486" s="7"/>
       <c r="J486" s="7"/>
-      <c r="K486" s="7"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="7"/>
@@ -6880,7 +6380,6 @@
       <c r="H487" s="7"/>
       <c r="I487" s="7"/>
       <c r="J487" s="7"/>
-      <c r="K487" s="7"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="7"/>
@@ -6893,7 +6392,6 @@
       <c r="H488" s="7"/>
       <c r="I488" s="7"/>
       <c r="J488" s="7"/>
-      <c r="K488" s="7"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="7"/>
@@ -6906,7 +6404,6 @@
       <c r="H489" s="7"/>
       <c r="I489" s="7"/>
       <c r="J489" s="7"/>
-      <c r="K489" s="7"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="7"/>
@@ -6919,7 +6416,6 @@
       <c r="H490" s="7"/>
       <c r="I490" s="7"/>
       <c r="J490" s="7"/>
-      <c r="K490" s="7"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="7"/>
@@ -6932,7 +6428,6 @@
       <c r="H491" s="7"/>
       <c r="I491" s="7"/>
       <c r="J491" s="7"/>
-      <c r="K491" s="7"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="7"/>
@@ -6945,7 +6440,6 @@
       <c r="H492" s="7"/>
       <c r="I492" s="7"/>
       <c r="J492" s="7"/>
-      <c r="K492" s="7"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="7"/>
@@ -6958,7 +6452,6 @@
       <c r="H493" s="7"/>
       <c r="I493" s="7"/>
       <c r="J493" s="7"/>
-      <c r="K493" s="7"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="7"/>
@@ -6971,7 +6464,6 @@
       <c r="H494" s="7"/>
       <c r="I494" s="7"/>
       <c r="J494" s="7"/>
-      <c r="K494" s="7"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="7"/>
@@ -6984,7 +6476,6 @@
       <c r="H495" s="7"/>
       <c r="I495" s="7"/>
       <c r="J495" s="7"/>
-      <c r="K495" s="7"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="7"/>
@@ -6997,7 +6488,6 @@
       <c r="H496" s="7"/>
       <c r="I496" s="7"/>
       <c r="J496" s="7"/>
-      <c r="K496" s="7"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="7"/>
@@ -7010,7 +6500,6 @@
       <c r="H497" s="7"/>
       <c r="I497" s="7"/>
       <c r="J497" s="7"/>
-      <c r="K497" s="7"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="7"/>
@@ -7023,7 +6512,6 @@
       <c r="H498" s="7"/>
       <c r="I498" s="7"/>
       <c r="J498" s="7"/>
-      <c r="K498" s="7"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="7"/>
@@ -7036,7 +6524,6 @@
       <c r="H499" s="7"/>
       <c r="I499" s="7"/>
       <c r="J499" s="7"/>
-      <c r="K499" s="7"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="7"/>
@@ -7049,7 +6536,6 @@
       <c r="H500" s="7"/>
       <c r="I500" s="7"/>
       <c r="J500" s="7"/>
-      <c r="K500" s="7"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="7"/>
@@ -7062,7 +6548,6 @@
       <c r="H501" s="7"/>
       <c r="I501" s="7"/>
       <c r="J501" s="7"/>
-      <c r="K501" s="7"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="7"/>
@@ -7075,7 +6560,6 @@
       <c r="H502" s="7"/>
       <c r="I502" s="7"/>
       <c r="J502" s="7"/>
-      <c r="K502" s="7"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="7"/>
@@ -7088,7 +6572,6 @@
       <c r="H503" s="7"/>
       <c r="I503" s="7"/>
       <c r="J503" s="7"/>
-      <c r="K503" s="7"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="7"/>
@@ -7101,7 +6584,6 @@
       <c r="H504" s="7"/>
       <c r="I504" s="7"/>
       <c r="J504" s="7"/>
-      <c r="K504" s="7"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="7"/>
@@ -7114,7 +6596,6 @@
       <c r="H505" s="7"/>
       <c r="I505" s="7"/>
       <c r="J505" s="7"/>
-      <c r="K505" s="7"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="7"/>
@@ -7127,7 +6608,6 @@
       <c r="H506" s="7"/>
       <c r="I506" s="7"/>
       <c r="J506" s="7"/>
-      <c r="K506" s="7"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="7"/>
@@ -7140,7 +6620,6 @@
       <c r="H507" s="7"/>
       <c r="I507" s="7"/>
       <c r="J507" s="7"/>
-      <c r="K507" s="7"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="7"/>
@@ -7153,7 +6632,6 @@
       <c r="H508" s="7"/>
       <c r="I508" s="7"/>
       <c r="J508" s="7"/>
-      <c r="K508" s="7"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="7"/>
@@ -7166,7 +6644,6 @@
       <c r="H509" s="7"/>
       <c r="I509" s="7"/>
       <c r="J509" s="7"/>
-      <c r="K509" s="7"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="7"/>
@@ -7179,7 +6656,6 @@
       <c r="H510" s="7"/>
       <c r="I510" s="7"/>
       <c r="J510" s="7"/>
-      <c r="K510" s="7"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="7"/>
@@ -7192,7 +6668,6 @@
       <c r="H511" s="7"/>
       <c r="I511" s="7"/>
       <c r="J511" s="7"/>
-      <c r="K511" s="7"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="7"/>
@@ -7205,7 +6680,6 @@
       <c r="H512" s="7"/>
       <c r="I512" s="7"/>
       <c r="J512" s="7"/>
-      <c r="K512" s="7"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="7"/>
@@ -7218,7 +6692,6 @@
       <c r="H513" s="7"/>
       <c r="I513" s="7"/>
       <c r="J513" s="7"/>
-      <c r="K513" s="7"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="7"/>
@@ -7231,7 +6704,6 @@
       <c r="H514" s="7"/>
       <c r="I514" s="7"/>
       <c r="J514" s="7"/>
-      <c r="K514" s="7"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="7"/>
@@ -7244,7 +6716,6 @@
       <c r="H515" s="7"/>
       <c r="I515" s="7"/>
       <c r="J515" s="7"/>
-      <c r="K515" s="7"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="7"/>
@@ -7257,7 +6728,6 @@
       <c r="H516" s="7"/>
       <c r="I516" s="7"/>
       <c r="J516" s="7"/>
-      <c r="K516" s="7"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="7"/>
@@ -7270,7 +6740,6 @@
       <c r="H517" s="7"/>
       <c r="I517" s="7"/>
       <c r="J517" s="7"/>
-      <c r="K517" s="7"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="7"/>
@@ -7283,7 +6752,6 @@
       <c r="H518" s="7"/>
       <c r="I518" s="7"/>
       <c r="J518" s="7"/>
-      <c r="K518" s="7"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="7"/>
@@ -7296,7 +6764,6 @@
       <c r="H519" s="7"/>
       <c r="I519" s="7"/>
       <c r="J519" s="7"/>
-      <c r="K519" s="7"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="7"/>
@@ -7309,7 +6776,6 @@
       <c r="H520" s="7"/>
       <c r="I520" s="7"/>
       <c r="J520" s="7"/>
-      <c r="K520" s="7"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="7"/>
@@ -7322,7 +6788,6 @@
       <c r="H521" s="7"/>
       <c r="I521" s="7"/>
       <c r="J521" s="7"/>
-      <c r="K521" s="7"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="7"/>
@@ -7335,7 +6800,6 @@
       <c r="H522" s="7"/>
       <c r="I522" s="7"/>
       <c r="J522" s="7"/>
-      <c r="K522" s="7"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="7"/>
@@ -7348,7 +6812,6 @@
       <c r="H523" s="7"/>
       <c r="I523" s="7"/>
       <c r="J523" s="7"/>
-      <c r="K523" s="7"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="7"/>
@@ -7361,7 +6824,6 @@
       <c r="H524" s="7"/>
       <c r="I524" s="7"/>
       <c r="J524" s="7"/>
-      <c r="K524" s="7"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="7"/>
@@ -7374,7 +6836,6 @@
       <c r="H525" s="7"/>
       <c r="I525" s="7"/>
       <c r="J525" s="7"/>
-      <c r="K525" s="7"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="7"/>
@@ -7387,7 +6848,6 @@
       <c r="H526" s="7"/>
       <c r="I526" s="7"/>
       <c r="J526" s="7"/>
-      <c r="K526" s="7"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="7"/>
@@ -7400,7 +6860,6 @@
       <c r="H527" s="7"/>
       <c r="I527" s="7"/>
       <c r="J527" s="7"/>
-      <c r="K527" s="7"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="7"/>
@@ -7413,7 +6872,6 @@
       <c r="H528" s="7"/>
       <c r="I528" s="7"/>
       <c r="J528" s="7"/>
-      <c r="K528" s="7"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="7"/>
@@ -7426,7 +6884,6 @@
       <c r="H529" s="7"/>
       <c r="I529" s="7"/>
       <c r="J529" s="7"/>
-      <c r="K529" s="7"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="7"/>
@@ -7439,7 +6896,6 @@
       <c r="H530" s="7"/>
       <c r="I530" s="7"/>
       <c r="J530" s="7"/>
-      <c r="K530" s="7"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="7"/>
@@ -7452,7 +6908,6 @@
       <c r="H531" s="7"/>
       <c r="I531" s="7"/>
       <c r="J531" s="7"/>
-      <c r="K531" s="7"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="7"/>
@@ -7465,7 +6920,6 @@
       <c r="H532" s="7"/>
       <c r="I532" s="7"/>
       <c r="J532" s="7"/>
-      <c r="K532" s="7"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="7"/>
@@ -7478,7 +6932,6 @@
       <c r="H533" s="7"/>
       <c r="I533" s="7"/>
       <c r="J533" s="7"/>
-      <c r="K533" s="7"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="7"/>
@@ -7491,7 +6944,6 @@
       <c r="H534" s="7"/>
       <c r="I534" s="7"/>
       <c r="J534" s="7"/>
-      <c r="K534" s="7"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="7"/>
@@ -7504,7 +6956,6 @@
       <c r="H535" s="7"/>
       <c r="I535" s="7"/>
       <c r="J535" s="7"/>
-      <c r="K535" s="7"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="7"/>
@@ -7517,7 +6968,6 @@
       <c r="H536" s="7"/>
       <c r="I536" s="7"/>
       <c r="J536" s="7"/>
-      <c r="K536" s="7"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="7"/>
@@ -7530,7 +6980,6 @@
       <c r="H537" s="7"/>
       <c r="I537" s="7"/>
       <c r="J537" s="7"/>
-      <c r="K537" s="7"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="7"/>
@@ -7543,7 +6992,6 @@
       <c r="H538" s="7"/>
       <c r="I538" s="7"/>
       <c r="J538" s="7"/>
-      <c r="K538" s="7"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="7"/>
@@ -7556,7 +7004,6 @@
       <c r="H539" s="7"/>
       <c r="I539" s="7"/>
       <c r="J539" s="7"/>
-      <c r="K539" s="7"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="7"/>
@@ -7569,7 +7016,6 @@
       <c r="H540" s="7"/>
       <c r="I540" s="7"/>
       <c r="J540" s="7"/>
-      <c r="K540" s="7"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="7"/>
@@ -7582,7 +7028,6 @@
       <c r="H541" s="7"/>
       <c r="I541" s="7"/>
       <c r="J541" s="7"/>
-      <c r="K541" s="7"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="7"/>
@@ -7595,7 +7040,6 @@
       <c r="H542" s="7"/>
       <c r="I542" s="7"/>
       <c r="J542" s="7"/>
-      <c r="K542" s="7"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="7"/>
@@ -7608,7 +7052,6 @@
       <c r="H543" s="7"/>
       <c r="I543" s="7"/>
       <c r="J543" s="7"/>
-      <c r="K543" s="7"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="7"/>
@@ -7621,7 +7064,6 @@
       <c r="H544" s="7"/>
       <c r="I544" s="7"/>
       <c r="J544" s="7"/>
-      <c r="K544" s="7"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="7"/>
@@ -7634,7 +7076,6 @@
       <c r="H545" s="7"/>
       <c r="I545" s="7"/>
       <c r="J545" s="7"/>
-      <c r="K545" s="7"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="7"/>
@@ -7647,7 +7088,6 @@
       <c r="H546" s="7"/>
       <c r="I546" s="7"/>
       <c r="J546" s="7"/>
-      <c r="K546" s="7"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="7"/>
@@ -7660,7 +7100,6 @@
       <c r="H547" s="7"/>
       <c r="I547" s="7"/>
       <c r="J547" s="7"/>
-      <c r="K547" s="7"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="7"/>
@@ -7673,7 +7112,6 @@
       <c r="H548" s="7"/>
       <c r="I548" s="7"/>
       <c r="J548" s="7"/>
-      <c r="K548" s="7"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="7"/>
@@ -7686,7 +7124,6 @@
       <c r="H549" s="7"/>
       <c r="I549" s="7"/>
       <c r="J549" s="7"/>
-      <c r="K549" s="7"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="7"/>
@@ -7699,7 +7136,6 @@
       <c r="H550" s="7"/>
       <c r="I550" s="7"/>
       <c r="J550" s="7"/>
-      <c r="K550" s="7"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="7"/>
@@ -7712,7 +7148,6 @@
       <c r="H551" s="7"/>
       <c r="I551" s="7"/>
       <c r="J551" s="7"/>
-      <c r="K551" s="7"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="7"/>
@@ -7725,7 +7160,6 @@
       <c r="H552" s="7"/>
       <c r="I552" s="7"/>
       <c r="J552" s="7"/>
-      <c r="K552" s="7"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="7"/>
@@ -7738,7 +7172,6 @@
       <c r="H553" s="7"/>
       <c r="I553" s="7"/>
       <c r="J553" s="7"/>
-      <c r="K553" s="7"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="7"/>
@@ -7751,7 +7184,6 @@
       <c r="H554" s="7"/>
       <c r="I554" s="7"/>
       <c r="J554" s="7"/>
-      <c r="K554" s="7"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="7"/>
@@ -7764,7 +7196,6 @@
       <c r="H555" s="7"/>
       <c r="I555" s="7"/>
       <c r="J555" s="7"/>
-      <c r="K555" s="7"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="7"/>
@@ -7777,7 +7208,6 @@
       <c r="H556" s="7"/>
       <c r="I556" s="7"/>
       <c r="J556" s="7"/>
-      <c r="K556" s="7"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="7"/>
@@ -7790,7 +7220,6 @@
       <c r="H557" s="7"/>
       <c r="I557" s="7"/>
       <c r="J557" s="7"/>
-      <c r="K557" s="7"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="7"/>
@@ -7803,7 +7232,6 @@
       <c r="H558" s="7"/>
       <c r="I558" s="7"/>
       <c r="J558" s="7"/>
-      <c r="K558" s="7"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="7"/>
@@ -7816,7 +7244,6 @@
       <c r="H559" s="7"/>
       <c r="I559" s="7"/>
       <c r="J559" s="7"/>
-      <c r="K559" s="7"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="7"/>
@@ -7829,7 +7256,6 @@
       <c r="H560" s="7"/>
       <c r="I560" s="7"/>
       <c r="J560" s="7"/>
-      <c r="K560" s="7"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="7"/>
@@ -7842,7 +7268,6 @@
       <c r="H561" s="7"/>
       <c r="I561" s="7"/>
       <c r="J561" s="7"/>
-      <c r="K561" s="7"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="7"/>
@@ -7855,7 +7280,6 @@
       <c r="H562" s="7"/>
       <c r="I562" s="7"/>
       <c r="J562" s="7"/>
-      <c r="K562" s="7"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="7"/>
@@ -7868,7 +7292,6 @@
       <c r="H563" s="7"/>
       <c r="I563" s="7"/>
       <c r="J563" s="7"/>
-      <c r="K563" s="7"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="7"/>
@@ -7881,7 +7304,6 @@
       <c r="H564" s="7"/>
       <c r="I564" s="7"/>
       <c r="J564" s="7"/>
-      <c r="K564" s="7"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="7"/>
@@ -7894,7 +7316,6 @@
       <c r="H565" s="7"/>
       <c r="I565" s="7"/>
       <c r="J565" s="7"/>
-      <c r="K565" s="7"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="7"/>
@@ -7907,7 +7328,6 @@
       <c r="H566" s="7"/>
       <c r="I566" s="7"/>
       <c r="J566" s="7"/>
-      <c r="K566" s="7"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="7"/>
@@ -7920,7 +7340,6 @@
       <c r="H567" s="7"/>
       <c r="I567" s="7"/>
       <c r="J567" s="7"/>
-      <c r="K567" s="7"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="7"/>
@@ -7933,7 +7352,6 @@
       <c r="H568" s="7"/>
       <c r="I568" s="7"/>
       <c r="J568" s="7"/>
-      <c r="K568" s="7"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="7"/>
@@ -7946,7 +7364,6 @@
       <c r="H569" s="7"/>
       <c r="I569" s="7"/>
       <c r="J569" s="7"/>
-      <c r="K569" s="7"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="7"/>
@@ -7959,7 +7376,6 @@
       <c r="H570" s="7"/>
       <c r="I570" s="7"/>
       <c r="J570" s="7"/>
-      <c r="K570" s="7"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="7"/>
@@ -7972,7 +7388,6 @@
       <c r="H571" s="7"/>
       <c r="I571" s="7"/>
       <c r="J571" s="7"/>
-      <c r="K571" s="7"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="7"/>
@@ -7985,7 +7400,6 @@
       <c r="H572" s="7"/>
       <c r="I572" s="7"/>
       <c r="J572" s="7"/>
-      <c r="K572" s="7"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="7"/>
@@ -7998,7 +7412,6 @@
       <c r="H573" s="7"/>
       <c r="I573" s="7"/>
       <c r="J573" s="7"/>
-      <c r="K573" s="7"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="7"/>
@@ -8011,7 +7424,6 @@
       <c r="H574" s="7"/>
       <c r="I574" s="7"/>
       <c r="J574" s="7"/>
-      <c r="K574" s="7"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="7"/>
@@ -8024,7 +7436,6 @@
       <c r="H575" s="7"/>
       <c r="I575" s="7"/>
       <c r="J575" s="7"/>
-      <c r="K575" s="7"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="7"/>
@@ -8037,7 +7448,6 @@
       <c r="H576" s="7"/>
       <c r="I576" s="7"/>
       <c r="J576" s="7"/>
-      <c r="K576" s="7"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="7"/>
@@ -8050,7 +7460,6 @@
       <c r="H577" s="7"/>
       <c r="I577" s="7"/>
       <c r="J577" s="7"/>
-      <c r="K577" s="7"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="7"/>
@@ -8063,7 +7472,6 @@
       <c r="H578" s="7"/>
       <c r="I578" s="7"/>
       <c r="J578" s="7"/>
-      <c r="K578" s="7"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="7"/>
@@ -8076,7 +7484,6 @@
       <c r="H579" s="7"/>
       <c r="I579" s="7"/>
       <c r="J579" s="7"/>
-      <c r="K579" s="7"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="7"/>
@@ -8089,7 +7496,6 @@
       <c r="H580" s="7"/>
       <c r="I580" s="7"/>
       <c r="J580" s="7"/>
-      <c r="K580" s="7"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="7"/>
@@ -8102,7 +7508,6 @@
       <c r="H581" s="7"/>
       <c r="I581" s="7"/>
       <c r="J581" s="7"/>
-      <c r="K581" s="7"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="7"/>
@@ -8115,7 +7520,6 @@
       <c r="H582" s="7"/>
       <c r="I582" s="7"/>
       <c r="J582" s="7"/>
-      <c r="K582" s="7"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="7"/>
@@ -8128,7 +7532,6 @@
       <c r="H583" s="7"/>
       <c r="I583" s="7"/>
       <c r="J583" s="7"/>
-      <c r="K583" s="7"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="7"/>
@@ -8141,7 +7544,6 @@
       <c r="H584" s="7"/>
       <c r="I584" s="7"/>
       <c r="J584" s="7"/>
-      <c r="K584" s="7"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="7"/>
@@ -8154,7 +7556,6 @@
       <c r="H585" s="7"/>
       <c r="I585" s="7"/>
       <c r="J585" s="7"/>
-      <c r="K585" s="7"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="7"/>
@@ -8167,7 +7568,6 @@
       <c r="H586" s="7"/>
       <c r="I586" s="7"/>
       <c r="J586" s="7"/>
-      <c r="K586" s="7"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="7"/>
@@ -8180,7 +7580,6 @@
       <c r="H587" s="7"/>
       <c r="I587" s="7"/>
       <c r="J587" s="7"/>
-      <c r="K587" s="7"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="7"/>
@@ -8193,7 +7592,6 @@
       <c r="H588" s="7"/>
       <c r="I588" s="7"/>
       <c r="J588" s="7"/>
-      <c r="K588" s="7"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="7"/>
@@ -8206,7 +7604,6 @@
       <c r="H589" s="7"/>
       <c r="I589" s="7"/>
       <c r="J589" s="7"/>
-      <c r="K589" s="7"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="7"/>
@@ -8219,7 +7616,6 @@
       <c r="H590" s="7"/>
       <c r="I590" s="7"/>
       <c r="J590" s="7"/>
-      <c r="K590" s="7"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="7"/>
@@ -8232,7 +7628,6 @@
       <c r="H591" s="7"/>
       <c r="I591" s="7"/>
       <c r="J591" s="7"/>
-      <c r="K591" s="7"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="7"/>
@@ -8245,7 +7640,6 @@
       <c r="H592" s="7"/>
       <c r="I592" s="7"/>
       <c r="J592" s="7"/>
-      <c r="K592" s="7"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="7"/>
@@ -8258,7 +7652,6 @@
       <c r="H593" s="7"/>
       <c r="I593" s="7"/>
       <c r="J593" s="7"/>
-      <c r="K593" s="7"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="7"/>
@@ -8271,7 +7664,6 @@
       <c r="H594" s="7"/>
       <c r="I594" s="7"/>
       <c r="J594" s="7"/>
-      <c r="K594" s="7"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="7"/>
@@ -8284,7 +7676,6 @@
       <c r="H595" s="7"/>
       <c r="I595" s="7"/>
       <c r="J595" s="7"/>
-      <c r="K595" s="7"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="7"/>
@@ -8297,7 +7688,6 @@
       <c r="H596" s="7"/>
       <c r="I596" s="7"/>
       <c r="J596" s="7"/>
-      <c r="K596" s="7"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="7"/>
@@ -8310,7 +7700,6 @@
       <c r="H597" s="7"/>
       <c r="I597" s="7"/>
       <c r="J597" s="7"/>
-      <c r="K597" s="7"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="7"/>
@@ -8323,7 +7712,6 @@
       <c r="H598" s="7"/>
       <c r="I598" s="7"/>
       <c r="J598" s="7"/>
-      <c r="K598" s="7"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="7"/>
@@ -8336,7 +7724,6 @@
       <c r="H599" s="7"/>
       <c r="I599" s="7"/>
       <c r="J599" s="7"/>
-      <c r="K599" s="7"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="7"/>
@@ -8349,7 +7736,6 @@
       <c r="H600" s="7"/>
       <c r="I600" s="7"/>
       <c r="J600" s="7"/>
-      <c r="K600" s="7"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="7"/>
@@ -8362,7 +7748,6 @@
       <c r="H601" s="7"/>
       <c r="I601" s="7"/>
       <c r="J601" s="7"/>
-      <c r="K601" s="7"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="7"/>
@@ -8375,7 +7760,6 @@
       <c r="H602" s="7"/>
       <c r="I602" s="7"/>
       <c r="J602" s="7"/>
-      <c r="K602" s="7"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="7"/>
@@ -8388,7 +7772,6 @@
       <c r="H603" s="7"/>
       <c r="I603" s="7"/>
       <c r="J603" s="7"/>
-      <c r="K603" s="7"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="7"/>
@@ -8401,7 +7784,6 @@
       <c r="H604" s="7"/>
       <c r="I604" s="7"/>
       <c r="J604" s="7"/>
-      <c r="K604" s="7"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="7"/>
@@ -8414,7 +7796,6 @@
       <c r="H605" s="7"/>
       <c r="I605" s="7"/>
       <c r="J605" s="7"/>
-      <c r="K605" s="7"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="7"/>
@@ -8427,7 +7808,6 @@
       <c r="H606" s="7"/>
       <c r="I606" s="7"/>
       <c r="J606" s="7"/>
-      <c r="K606" s="7"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="7"/>
@@ -8440,7 +7820,6 @@
       <c r="H607" s="7"/>
       <c r="I607" s="7"/>
       <c r="J607" s="7"/>
-      <c r="K607" s="7"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="7"/>
@@ -8453,7 +7832,6 @@
       <c r="H608" s="7"/>
       <c r="I608" s="7"/>
       <c r="J608" s="7"/>
-      <c r="K608" s="7"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="7"/>
@@ -8466,7 +7844,6 @@
       <c r="H609" s="7"/>
       <c r="I609" s="7"/>
       <c r="J609" s="7"/>
-      <c r="K609" s="7"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="7"/>
@@ -8479,7 +7856,6 @@
       <c r="H610" s="7"/>
       <c r="I610" s="7"/>
       <c r="J610" s="7"/>
-      <c r="K610" s="7"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="7"/>
@@ -8492,7 +7868,6 @@
       <c r="H611" s="7"/>
       <c r="I611" s="7"/>
       <c r="J611" s="7"/>
-      <c r="K611" s="7"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="7"/>
@@ -8505,7 +7880,6 @@
       <c r="H612" s="7"/>
       <c r="I612" s="7"/>
       <c r="J612" s="7"/>
-      <c r="K612" s="7"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="7"/>
@@ -8518,7 +7892,6 @@
       <c r="H613" s="7"/>
       <c r="I613" s="7"/>
       <c r="J613" s="7"/>
-      <c r="K613" s="7"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="7"/>
@@ -8531,7 +7904,6 @@
       <c r="H614" s="7"/>
       <c r="I614" s="7"/>
       <c r="J614" s="7"/>
-      <c r="K614" s="7"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="7"/>
@@ -8544,7 +7916,6 @@
       <c r="H615" s="7"/>
       <c r="I615" s="7"/>
       <c r="J615" s="7"/>
-      <c r="K615" s="7"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="7"/>
@@ -8557,7 +7928,6 @@
       <c r="H616" s="7"/>
       <c r="I616" s="7"/>
       <c r="J616" s="7"/>
-      <c r="K616" s="7"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="7"/>
@@ -8570,7 +7940,6 @@
       <c r="H617" s="7"/>
       <c r="I617" s="7"/>
       <c r="J617" s="7"/>
-      <c r="K617" s="7"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="7"/>
@@ -8583,7 +7952,6 @@
       <c r="H618" s="7"/>
       <c r="I618" s="7"/>
       <c r="J618" s="7"/>
-      <c r="K618" s="7"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="7"/>
@@ -8596,7 +7964,6 @@
       <c r="H619" s="7"/>
       <c r="I619" s="7"/>
       <c r="J619" s="7"/>
-      <c r="K619" s="7"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="7"/>
@@ -8609,7 +7976,6 @@
       <c r="H620" s="7"/>
       <c r="I620" s="7"/>
       <c r="J620" s="7"/>
-      <c r="K620" s="7"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="7"/>
@@ -8622,7 +7988,6 @@
       <c r="H621" s="7"/>
       <c r="I621" s="7"/>
       <c r="J621" s="7"/>
-      <c r="K621" s="7"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="7"/>
@@ -8635,7 +8000,6 @@
       <c r="H622" s="7"/>
       <c r="I622" s="7"/>
       <c r="J622" s="7"/>
-      <c r="K622" s="7"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="7"/>
@@ -8648,7 +8012,6 @@
       <c r="H623" s="7"/>
       <c r="I623" s="7"/>
       <c r="J623" s="7"/>
-      <c r="K623" s="7"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="7"/>
@@ -8661,7 +8024,6 @@
       <c r="H624" s="7"/>
       <c r="I624" s="7"/>
       <c r="J624" s="7"/>
-      <c r="K624" s="7"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="7"/>
@@ -8674,7 +8036,6 @@
       <c r="H625" s="7"/>
       <c r="I625" s="7"/>
       <c r="J625" s="7"/>
-      <c r="K625" s="7"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="7"/>
@@ -8687,7 +8048,6 @@
       <c r="H626" s="7"/>
       <c r="I626" s="7"/>
       <c r="J626" s="7"/>
-      <c r="K626" s="7"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="7"/>
@@ -8700,7 +8060,6 @@
       <c r="H627" s="7"/>
       <c r="I627" s="7"/>
       <c r="J627" s="7"/>
-      <c r="K627" s="7"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="7"/>
@@ -8713,7 +8072,6 @@
       <c r="H628" s="7"/>
       <c r="I628" s="7"/>
       <c r="J628" s="7"/>
-      <c r="K628" s="7"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="7"/>
@@ -8726,7 +8084,6 @@
       <c r="H629" s="7"/>
       <c r="I629" s="7"/>
       <c r="J629" s="7"/>
-      <c r="K629" s="7"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="7"/>
@@ -8739,7 +8096,6 @@
       <c r="H630" s="7"/>
       <c r="I630" s="7"/>
       <c r="J630" s="7"/>
-      <c r="K630" s="7"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="7"/>
@@ -8752,7 +8108,6 @@
       <c r="H631" s="7"/>
       <c r="I631" s="7"/>
       <c r="J631" s="7"/>
-      <c r="K631" s="7"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="7"/>
@@ -8765,7 +8120,6 @@
       <c r="H632" s="7"/>
       <c r="I632" s="7"/>
       <c r="J632" s="7"/>
-      <c r="K632" s="7"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="7"/>
@@ -8778,7 +8132,6 @@
       <c r="H633" s="7"/>
       <c r="I633" s="7"/>
       <c r="J633" s="7"/>
-      <c r="K633" s="7"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="7"/>
@@ -8791,7 +8144,6 @@
       <c r="H634" s="7"/>
       <c r="I634" s="7"/>
       <c r="J634" s="7"/>
-      <c r="K634" s="7"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="7"/>
@@ -8804,7 +8156,6 @@
       <c r="H635" s="7"/>
       <c r="I635" s="7"/>
       <c r="J635" s="7"/>
-      <c r="K635" s="7"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="7"/>
@@ -8817,7 +8168,6 @@
       <c r="H636" s="7"/>
       <c r="I636" s="7"/>
       <c r="J636" s="7"/>
-      <c r="K636" s="7"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="7"/>
@@ -8830,7 +8180,6 @@
       <c r="H637" s="7"/>
       <c r="I637" s="7"/>
       <c r="J637" s="7"/>
-      <c r="K637" s="7"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="7"/>
@@ -8843,7 +8192,6 @@
       <c r="H638" s="7"/>
       <c r="I638" s="7"/>
       <c r="J638" s="7"/>
-      <c r="K638" s="7"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="7"/>
@@ -8856,7 +8204,6 @@
       <c r="H639" s="7"/>
       <c r="I639" s="7"/>
       <c r="J639" s="7"/>
-      <c r="K639" s="7"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="7"/>
@@ -8869,7 +8216,6 @@
       <c r="H640" s="7"/>
       <c r="I640" s="7"/>
       <c r="J640" s="7"/>
-      <c r="K640" s="7"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="7"/>
@@ -8882,7 +8228,6 @@
       <c r="H641" s="7"/>
       <c r="I641" s="7"/>
       <c r="J641" s="7"/>
-      <c r="K641" s="7"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="7"/>
@@ -8895,7 +8240,6 @@
       <c r="H642" s="7"/>
       <c r="I642" s="7"/>
       <c r="J642" s="7"/>
-      <c r="K642" s="7"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="7"/>
@@ -8908,7 +8252,6 @@
       <c r="H643" s="7"/>
       <c r="I643" s="7"/>
       <c r="J643" s="7"/>
-      <c r="K643" s="7"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="7"/>
@@ -8921,7 +8264,6 @@
       <c r="H644" s="7"/>
       <c r="I644" s="7"/>
       <c r="J644" s="7"/>
-      <c r="K644" s="7"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="7"/>
@@ -8934,7 +8276,6 @@
       <c r="H645" s="7"/>
       <c r="I645" s="7"/>
       <c r="J645" s="7"/>
-      <c r="K645" s="7"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="7"/>
@@ -8947,7 +8288,6 @@
       <c r="H646" s="7"/>
       <c r="I646" s="7"/>
       <c r="J646" s="7"/>
-      <c r="K646" s="7"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="7"/>
@@ -8960,7 +8300,6 @@
       <c r="H647" s="7"/>
       <c r="I647" s="7"/>
       <c r="J647" s="7"/>
-      <c r="K647" s="7"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="7"/>
@@ -8973,7 +8312,6 @@
       <c r="H648" s="7"/>
       <c r="I648" s="7"/>
       <c r="J648" s="7"/>
-      <c r="K648" s="7"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="7"/>
@@ -8986,7 +8324,6 @@
       <c r="H649" s="7"/>
       <c r="I649" s="7"/>
       <c r="J649" s="7"/>
-      <c r="K649" s="7"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="7"/>
@@ -8999,7 +8336,6 @@
       <c r="H650" s="7"/>
       <c r="I650" s="7"/>
       <c r="J650" s="7"/>
-      <c r="K650" s="7"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="7"/>
@@ -9012,7 +8348,6 @@
       <c r="H651" s="7"/>
       <c r="I651" s="7"/>
       <c r="J651" s="7"/>
-      <c r="K651" s="7"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="7"/>
@@ -9025,7 +8360,6 @@
       <c r="H652" s="7"/>
       <c r="I652" s="7"/>
       <c r="J652" s="7"/>
-      <c r="K652" s="7"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="7"/>
@@ -9038,7 +8372,6 @@
       <c r="H653" s="7"/>
       <c r="I653" s="7"/>
       <c r="J653" s="7"/>
-      <c r="K653" s="7"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="7"/>
@@ -9051,7 +8384,6 @@
       <c r="H654" s="7"/>
       <c r="I654" s="7"/>
       <c r="J654" s="7"/>
-      <c r="K654" s="7"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="7"/>
@@ -9064,7 +8396,6 @@
       <c r="H655" s="7"/>
       <c r="I655" s="7"/>
       <c r="J655" s="7"/>
-      <c r="K655" s="7"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="7"/>
@@ -9077,7 +8408,6 @@
       <c r="H656" s="7"/>
       <c r="I656" s="7"/>
       <c r="J656" s="7"/>
-      <c r="K656" s="7"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="7"/>
@@ -9090,7 +8420,6 @@
       <c r="H657" s="7"/>
       <c r="I657" s="7"/>
       <c r="J657" s="7"/>
-      <c r="K657" s="7"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="7"/>
@@ -9103,7 +8432,6 @@
       <c r="H658" s="7"/>
       <c r="I658" s="7"/>
       <c r="J658" s="7"/>
-      <c r="K658" s="7"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="7"/>
@@ -9116,7 +8444,6 @@
       <c r="H659" s="7"/>
       <c r="I659" s="7"/>
       <c r="J659" s="7"/>
-      <c r="K659" s="7"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="7"/>
@@ -9129,7 +8456,6 @@
       <c r="H660" s="7"/>
       <c r="I660" s="7"/>
       <c r="J660" s="7"/>
-      <c r="K660" s="7"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="7"/>
@@ -9142,7 +8468,6 @@
       <c r="H661" s="7"/>
       <c r="I661" s="7"/>
       <c r="J661" s="7"/>
-      <c r="K661" s="7"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="7"/>
@@ -9155,7 +8480,6 @@
       <c r="H662" s="7"/>
       <c r="I662" s="7"/>
       <c r="J662" s="7"/>
-      <c r="K662" s="7"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="7"/>
@@ -9168,7 +8492,6 @@
       <c r="H663" s="7"/>
       <c r="I663" s="7"/>
       <c r="J663" s="7"/>
-      <c r="K663" s="7"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="7"/>
@@ -9181,7 +8504,6 @@
       <c r="H664" s="7"/>
       <c r="I664" s="7"/>
       <c r="J664" s="7"/>
-      <c r="K664" s="7"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="7"/>
@@ -9194,7 +8516,6 @@
       <c r="H665" s="7"/>
       <c r="I665" s="7"/>
       <c r="J665" s="7"/>
-      <c r="K665" s="7"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="7"/>
@@ -9207,7 +8528,6 @@
       <c r="H666" s="7"/>
       <c r="I666" s="7"/>
       <c r="J666" s="7"/>
-      <c r="K666" s="7"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="7"/>
@@ -9220,7 +8540,6 @@
       <c r="H667" s="7"/>
       <c r="I667" s="7"/>
       <c r="J667" s="7"/>
-      <c r="K667" s="7"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="7"/>
@@ -9233,7 +8552,6 @@
       <c r="H668" s="7"/>
       <c r="I668" s="7"/>
       <c r="J668" s="7"/>
-      <c r="K668" s="7"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="7"/>
@@ -9246,7 +8564,6 @@
       <c r="H669" s="7"/>
       <c r="I669" s="7"/>
       <c r="J669" s="7"/>
-      <c r="K669" s="7"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="7"/>
@@ -9259,7 +8576,6 @@
       <c r="H670" s="7"/>
       <c r="I670" s="7"/>
       <c r="J670" s="7"/>
-      <c r="K670" s="7"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="7"/>
@@ -9272,7 +8588,6 @@
       <c r="H671" s="7"/>
       <c r="I671" s="7"/>
       <c r="J671" s="7"/>
-      <c r="K671" s="7"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="7"/>
@@ -9285,7 +8600,6 @@
       <c r="H672" s="7"/>
       <c r="I672" s="7"/>
       <c r="J672" s="7"/>
-      <c r="K672" s="7"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="7"/>
@@ -9298,7 +8612,6 @@
       <c r="H673" s="7"/>
       <c r="I673" s="7"/>
       <c r="J673" s="7"/>
-      <c r="K673" s="7"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="7"/>
@@ -9311,7 +8624,6 @@
       <c r="H674" s="7"/>
       <c r="I674" s="7"/>
       <c r="J674" s="7"/>
-      <c r="K674" s="7"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="7"/>
@@ -9324,7 +8636,6 @@
       <c r="H675" s="7"/>
       <c r="I675" s="7"/>
       <c r="J675" s="7"/>
-      <c r="K675" s="7"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="7"/>
@@ -9337,7 +8648,6 @@
       <c r="H676" s="7"/>
       <c r="I676" s="7"/>
       <c r="J676" s="7"/>
-      <c r="K676" s="7"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="7"/>
@@ -9350,7 +8660,6 @@
       <c r="H677" s="7"/>
       <c r="I677" s="7"/>
       <c r="J677" s="7"/>
-      <c r="K677" s="7"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="7"/>
@@ -9363,7 +8672,6 @@
       <c r="H678" s="7"/>
       <c r="I678" s="7"/>
       <c r="J678" s="7"/>
-      <c r="K678" s="7"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="7"/>
@@ -9376,7 +8684,6 @@
       <c r="H679" s="7"/>
       <c r="I679" s="7"/>
       <c r="J679" s="7"/>
-      <c r="K679" s="7"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="7"/>
@@ -9389,7 +8696,6 @@
       <c r="H680" s="7"/>
       <c r="I680" s="7"/>
       <c r="J680" s="7"/>
-      <c r="K680" s="7"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="7"/>
@@ -9402,7 +8708,6 @@
       <c r="H681" s="7"/>
       <c r="I681" s="7"/>
       <c r="J681" s="7"/>
-      <c r="K681" s="7"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="7"/>
@@ -9415,7 +8720,6 @@
       <c r="H682" s="7"/>
       <c r="I682" s="7"/>
       <c r="J682" s="7"/>
-      <c r="K682" s="7"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="7"/>
@@ -9428,7 +8732,6 @@
       <c r="H683" s="7"/>
       <c r="I683" s="7"/>
       <c r="J683" s="7"/>
-      <c r="K683" s="7"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="7"/>
@@ -9441,7 +8744,6 @@
       <c r="H684" s="7"/>
       <c r="I684" s="7"/>
       <c r="J684" s="7"/>
-      <c r="K684" s="7"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="7"/>
@@ -9454,7 +8756,6 @@
       <c r="H685" s="7"/>
       <c r="I685" s="7"/>
       <c r="J685" s="7"/>
-      <c r="K685" s="7"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="7"/>
@@ -9467,7 +8768,6 @@
       <c r="H686" s="7"/>
       <c r="I686" s="7"/>
       <c r="J686" s="7"/>
-      <c r="K686" s="7"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="7"/>
@@ -9480,7 +8780,6 @@
       <c r="H687" s="7"/>
       <c r="I687" s="7"/>
       <c r="J687" s="7"/>
-      <c r="K687" s="7"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="7"/>
@@ -9493,7 +8792,6 @@
       <c r="H688" s="7"/>
       <c r="I688" s="7"/>
       <c r="J688" s="7"/>
-      <c r="K688" s="7"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="7"/>
@@ -9506,7 +8804,6 @@
       <c r="H689" s="7"/>
       <c r="I689" s="7"/>
       <c r="J689" s="7"/>
-      <c r="K689" s="7"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="7"/>
@@ -9519,7 +8816,6 @@
       <c r="H690" s="7"/>
       <c r="I690" s="7"/>
       <c r="J690" s="7"/>
-      <c r="K690" s="7"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="7"/>
@@ -9532,7 +8828,6 @@
       <c r="H691" s="7"/>
       <c r="I691" s="7"/>
       <c r="J691" s="7"/>
-      <c r="K691" s="7"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="7"/>
@@ -9545,7 +8840,6 @@
       <c r="H692" s="7"/>
       <c r="I692" s="7"/>
       <c r="J692" s="7"/>
-      <c r="K692" s="7"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="7"/>
@@ -9558,7 +8852,6 @@
       <c r="H693" s="7"/>
       <c r="I693" s="7"/>
       <c r="J693" s="7"/>
-      <c r="K693" s="7"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="7"/>
@@ -9571,7 +8864,6 @@
       <c r="H694" s="7"/>
       <c r="I694" s="7"/>
       <c r="J694" s="7"/>
-      <c r="K694" s="7"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="7"/>
@@ -9584,7 +8876,6 @@
       <c r="H695" s="7"/>
       <c r="I695" s="7"/>
       <c r="J695" s="7"/>
-      <c r="K695" s="7"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="7"/>
@@ -9597,7 +8888,6 @@
       <c r="H696" s="7"/>
       <c r="I696" s="7"/>
       <c r="J696" s="7"/>
-      <c r="K696" s="7"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="7"/>
@@ -9610,7 +8900,6 @@
       <c r="H697" s="7"/>
       <c r="I697" s="7"/>
       <c r="J697" s="7"/>
-      <c r="K697" s="7"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="7"/>
@@ -9623,7 +8912,6 @@
       <c r="H698" s="7"/>
       <c r="I698" s="7"/>
       <c r="J698" s="7"/>
-      <c r="K698" s="7"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="7"/>
@@ -9636,7 +8924,6 @@
       <c r="H699" s="7"/>
       <c r="I699" s="7"/>
       <c r="J699" s="7"/>
-      <c r="K699" s="7"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="7"/>
@@ -9649,7 +8936,6 @@
       <c r="H700" s="7"/>
       <c r="I700" s="7"/>
       <c r="J700" s="7"/>
-      <c r="K700" s="7"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="7"/>
@@ -9662,7 +8948,6 @@
       <c r="H701" s="7"/>
       <c r="I701" s="7"/>
       <c r="J701" s="7"/>
-      <c r="K701" s="7"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="7"/>
@@ -9675,7 +8960,6 @@
       <c r="H702" s="7"/>
       <c r="I702" s="7"/>
       <c r="J702" s="7"/>
-      <c r="K702" s="7"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="7"/>
@@ -9688,7 +8972,6 @@
       <c r="H703" s="7"/>
       <c r="I703" s="7"/>
       <c r="J703" s="7"/>
-      <c r="K703" s="7"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="7"/>
@@ -9701,7 +8984,6 @@
       <c r="H704" s="7"/>
       <c r="I704" s="7"/>
       <c r="J704" s="7"/>
-      <c r="K704" s="7"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="7"/>
@@ -9714,7 +8996,6 @@
       <c r="H705" s="7"/>
       <c r="I705" s="7"/>
       <c r="J705" s="7"/>
-      <c r="K705" s="7"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="7"/>
@@ -9727,7 +9008,6 @@
       <c r="H706" s="7"/>
       <c r="I706" s="7"/>
       <c r="J706" s="7"/>
-      <c r="K706" s="7"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="7"/>
@@ -9740,7 +9020,6 @@
       <c r="H707" s="7"/>
       <c r="I707" s="7"/>
       <c r="J707" s="7"/>
-      <c r="K707" s="7"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="7"/>
@@ -9753,7 +9032,6 @@
       <c r="H708" s="7"/>
       <c r="I708" s="7"/>
       <c r="J708" s="7"/>
-      <c r="K708" s="7"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="7"/>
@@ -9766,7 +9044,6 @@
       <c r="H709" s="7"/>
       <c r="I709" s="7"/>
       <c r="J709" s="7"/>
-      <c r="K709" s="7"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="7"/>
@@ -9779,7 +9056,6 @@
       <c r="H710" s="7"/>
       <c r="I710" s="7"/>
       <c r="J710" s="7"/>
-      <c r="K710" s="7"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="7"/>
@@ -9792,7 +9068,6 @@
       <c r="H711" s="7"/>
       <c r="I711" s="7"/>
       <c r="J711" s="7"/>
-      <c r="K711" s="7"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="7"/>
@@ -9805,7 +9080,6 @@
       <c r="H712" s="7"/>
       <c r="I712" s="7"/>
       <c r="J712" s="7"/>
-      <c r="K712" s="7"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="7"/>
@@ -9818,7 +9092,6 @@
       <c r="H713" s="7"/>
       <c r="I713" s="7"/>
       <c r="J713" s="7"/>
-      <c r="K713" s="7"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="7"/>
@@ -9831,7 +9104,6 @@
       <c r="H714" s="7"/>
       <c r="I714" s="7"/>
       <c r="J714" s="7"/>
-      <c r="K714" s="7"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="7"/>
@@ -9844,7 +9116,6 @@
       <c r="H715" s="7"/>
       <c r="I715" s="7"/>
       <c r="J715" s="7"/>
-      <c r="K715" s="7"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="7"/>
@@ -9857,7 +9128,6 @@
       <c r="H716" s="7"/>
       <c r="I716" s="7"/>
       <c r="J716" s="7"/>
-      <c r="K716" s="7"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="7"/>
@@ -9870,7 +9140,6 @@
       <c r="H717" s="7"/>
       <c r="I717" s="7"/>
       <c r="J717" s="7"/>
-      <c r="K717" s="7"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="7"/>
@@ -9883,7 +9152,6 @@
       <c r="H718" s="7"/>
       <c r="I718" s="7"/>
       <c r="J718" s="7"/>
-      <c r="K718" s="7"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="7"/>
@@ -9896,7 +9164,6 @@
       <c r="H719" s="7"/>
       <c r="I719" s="7"/>
       <c r="J719" s="7"/>
-      <c r="K719" s="7"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="7"/>
@@ -9909,7 +9176,6 @@
       <c r="H720" s="7"/>
       <c r="I720" s="7"/>
       <c r="J720" s="7"/>
-      <c r="K720" s="7"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="7"/>
@@ -9922,7 +9188,6 @@
       <c r="H721" s="7"/>
       <c r="I721" s="7"/>
       <c r="J721" s="7"/>
-      <c r="K721" s="7"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="7"/>
@@ -9935,7 +9200,6 @@
       <c r="H722" s="7"/>
       <c r="I722" s="7"/>
       <c r="J722" s="7"/>
-      <c r="K722" s="7"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="7"/>
@@ -9948,7 +9212,6 @@
       <c r="H723" s="7"/>
       <c r="I723" s="7"/>
       <c r="J723" s="7"/>
-      <c r="K723" s="7"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="7"/>
@@ -9961,7 +9224,6 @@
       <c r="H724" s="7"/>
       <c r="I724" s="7"/>
       <c r="J724" s="7"/>
-      <c r="K724" s="7"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="7"/>
@@ -9974,7 +9236,6 @@
       <c r="H725" s="7"/>
       <c r="I725" s="7"/>
       <c r="J725" s="7"/>
-      <c r="K725" s="7"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="7"/>
@@ -9987,7 +9248,6 @@
       <c r="H726" s="7"/>
       <c r="I726" s="7"/>
       <c r="J726" s="7"/>
-      <c r="K726" s="7"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="7"/>
@@ -10000,7 +9260,6 @@
       <c r="H727" s="7"/>
       <c r="I727" s="7"/>
       <c r="J727" s="7"/>
-      <c r="K727" s="7"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="7"/>
@@ -10013,7 +9272,6 @@
       <c r="H728" s="7"/>
       <c r="I728" s="7"/>
       <c r="J728" s="7"/>
-      <c r="K728" s="7"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="7"/>
@@ -10026,7 +9284,6 @@
       <c r="H729" s="7"/>
       <c r="I729" s="7"/>
       <c r="J729" s="7"/>
-      <c r="K729" s="7"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="7"/>
@@ -10039,7 +9296,6 @@
       <c r="H730" s="7"/>
       <c r="I730" s="7"/>
       <c r="J730" s="7"/>
-      <c r="K730" s="7"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="7"/>
@@ -10052,7 +9308,6 @@
       <c r="H731" s="7"/>
       <c r="I731" s="7"/>
       <c r="J731" s="7"/>
-      <c r="K731" s="7"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="7"/>
@@ -10065,7 +9320,6 @@
       <c r="H732" s="7"/>
       <c r="I732" s="7"/>
       <c r="J732" s="7"/>
-      <c r="K732" s="7"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="7"/>
@@ -10078,7 +9332,6 @@
       <c r="H733" s="7"/>
       <c r="I733" s="7"/>
       <c r="J733" s="7"/>
-      <c r="K733" s="7"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="7"/>
@@ -10091,7 +9344,6 @@
       <c r="H734" s="7"/>
       <c r="I734" s="7"/>
       <c r="J734" s="7"/>
-      <c r="K734" s="7"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="7"/>
@@ -10104,7 +9356,6 @@
       <c r="H735" s="7"/>
       <c r="I735" s="7"/>
       <c r="J735" s="7"/>
-      <c r="K735" s="7"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="7"/>
@@ -10117,7 +9368,6 @@
       <c r="H736" s="7"/>
       <c r="I736" s="7"/>
       <c r="J736" s="7"/>
-      <c r="K736" s="7"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="7"/>
@@ -10130,7 +9380,6 @@
       <c r="H737" s="7"/>
       <c r="I737" s="7"/>
       <c r="J737" s="7"/>
-      <c r="K737" s="7"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="7"/>
@@ -10143,7 +9392,6 @@
       <c r="H738" s="7"/>
       <c r="I738" s="7"/>
       <c r="J738" s="7"/>
-      <c r="K738" s="7"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="7"/>
@@ -10156,7 +9404,6 @@
       <c r="H739" s="7"/>
       <c r="I739" s="7"/>
       <c r="J739" s="7"/>
-      <c r="K739" s="7"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="7"/>
@@ -10169,7 +9416,6 @@
       <c r="H740" s="7"/>
       <c r="I740" s="7"/>
       <c r="J740" s="7"/>
-      <c r="K740" s="7"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="7"/>
@@ -10182,7 +9428,6 @@
       <c r="H741" s="7"/>
       <c r="I741" s="7"/>
       <c r="J741" s="7"/>
-      <c r="K741" s="7"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="7"/>
@@ -10195,7 +9440,6 @@
       <c r="H742" s="7"/>
       <c r="I742" s="7"/>
       <c r="J742" s="7"/>
-      <c r="K742" s="7"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="7"/>
@@ -10208,7 +9452,6 @@
       <c r="H743" s="7"/>
       <c r="I743" s="7"/>
       <c r="J743" s="7"/>
-      <c r="K743" s="7"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="7"/>
@@ -10221,7 +9464,6 @@
       <c r="H744" s="7"/>
       <c r="I744" s="7"/>
       <c r="J744" s="7"/>
-      <c r="K744" s="7"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="7"/>
@@ -10234,7 +9476,6 @@
       <c r="H745" s="7"/>
       <c r="I745" s="7"/>
       <c r="J745" s="7"/>
-      <c r="K745" s="7"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="7"/>
@@ -10247,7 +9488,6 @@
       <c r="H746" s="7"/>
       <c r="I746" s="7"/>
       <c r="J746" s="7"/>
-      <c r="K746" s="7"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="7"/>
@@ -10260,7 +9500,6 @@
       <c r="H747" s="7"/>
       <c r="I747" s="7"/>
       <c r="J747" s="7"/>
-      <c r="K747" s="7"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="7"/>
@@ -10273,7 +9512,6 @@
       <c r="H748" s="7"/>
       <c r="I748" s="7"/>
       <c r="J748" s="7"/>
-      <c r="K748" s="7"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="7"/>
@@ -10286,7 +9524,6 @@
       <c r="H749" s="7"/>
       <c r="I749" s="7"/>
       <c r="J749" s="7"/>
-      <c r="K749" s="7"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="7"/>
@@ -10299,7 +9536,6 @@
       <c r="H750" s="7"/>
       <c r="I750" s="7"/>
       <c r="J750" s="7"/>
-      <c r="K750" s="7"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="7"/>
@@ -10312,7 +9548,6 @@
       <c r="H751" s="7"/>
       <c r="I751" s="7"/>
       <c r="J751" s="7"/>
-      <c r="K751" s="7"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="7"/>
@@ -10325,7 +9560,6 @@
       <c r="H752" s="7"/>
       <c r="I752" s="7"/>
       <c r="J752" s="7"/>
-      <c r="K752" s="7"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="7"/>
@@ -10338,7 +9572,6 @@
       <c r="H753" s="7"/>
       <c r="I753" s="7"/>
       <c r="J753" s="7"/>
-      <c r="K753" s="7"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="7"/>
@@ -10351,7 +9584,6 @@
       <c r="H754" s="7"/>
       <c r="I754" s="7"/>
       <c r="J754" s="7"/>
-      <c r="K754" s="7"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="7"/>
@@ -10364,7 +9596,6 @@
       <c r="H755" s="7"/>
       <c r="I755" s="7"/>
       <c r="J755" s="7"/>
-      <c r="K755" s="7"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="7"/>
@@ -10377,7 +9608,6 @@
       <c r="H756" s="7"/>
       <c r="I756" s="7"/>
       <c r="J756" s="7"/>
-      <c r="K756" s="7"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="7"/>
@@ -10390,7 +9620,6 @@
       <c r="H757" s="7"/>
       <c r="I757" s="7"/>
       <c r="J757" s="7"/>
-      <c r="K757" s="7"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="7"/>
@@ -10403,7 +9632,6 @@
       <c r="H758" s="7"/>
       <c r="I758" s="7"/>
       <c r="J758" s="7"/>
-      <c r="K758" s="7"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="7"/>
@@ -10416,7 +9644,6 @@
       <c r="H759" s="7"/>
       <c r="I759" s="7"/>
       <c r="J759" s="7"/>
-      <c r="K759" s="7"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="7"/>
@@ -10429,7 +9656,6 @@
       <c r="H760" s="7"/>
       <c r="I760" s="7"/>
       <c r="J760" s="7"/>
-      <c r="K760" s="7"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="7"/>
@@ -10442,7 +9668,6 @@
       <c r="H761" s="7"/>
       <c r="I761" s="7"/>
       <c r="J761" s="7"/>
-      <c r="K761" s="7"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="7"/>
@@ -10455,7 +9680,6 @@
       <c r="H762" s="7"/>
       <c r="I762" s="7"/>
       <c r="J762" s="7"/>
-      <c r="K762" s="7"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="7"/>
@@ -10468,7 +9692,6 @@
       <c r="H763" s="7"/>
       <c r="I763" s="7"/>
       <c r="J763" s="7"/>
-      <c r="K763" s="7"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="7"/>
@@ -10481,7 +9704,6 @@
       <c r="H764" s="7"/>
       <c r="I764" s="7"/>
       <c r="J764" s="7"/>
-      <c r="K764" s="7"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="7"/>
@@ -10494,7 +9716,6 @@
       <c r="H765" s="7"/>
       <c r="I765" s="7"/>
       <c r="J765" s="7"/>
-      <c r="K765" s="7"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="7"/>
@@ -10507,7 +9728,6 @@
       <c r="H766" s="7"/>
       <c r="I766" s="7"/>
       <c r="J766" s="7"/>
-      <c r="K766" s="7"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="7"/>
@@ -10520,7 +9740,6 @@
       <c r="H767" s="7"/>
       <c r="I767" s="7"/>
       <c r="J767" s="7"/>
-      <c r="K767" s="7"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="7"/>
@@ -10533,7 +9752,6 @@
       <c r="H768" s="7"/>
       <c r="I768" s="7"/>
       <c r="J768" s="7"/>
-      <c r="K768" s="7"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="7"/>
@@ -10546,7 +9764,6 @@
       <c r="H769" s="7"/>
       <c r="I769" s="7"/>
       <c r="J769" s="7"/>
-      <c r="K769" s="7"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="7"/>
@@ -10559,7 +9776,6 @@
       <c r="H770" s="7"/>
       <c r="I770" s="7"/>
       <c r="J770" s="7"/>
-      <c r="K770" s="7"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="7"/>
@@ -10572,7 +9788,6 @@
       <c r="H771" s="7"/>
       <c r="I771" s="7"/>
       <c r="J771" s="7"/>
-      <c r="K771" s="7"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="7"/>
@@ -10585,7 +9800,6 @@
       <c r="H772" s="7"/>
       <c r="I772" s="7"/>
       <c r="J772" s="7"/>
-      <c r="K772" s="7"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="7"/>
@@ -10598,7 +9812,6 @@
       <c r="H773" s="7"/>
       <c r="I773" s="7"/>
       <c r="J773" s="7"/>
-      <c r="K773" s="7"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="7"/>
@@ -10611,7 +9824,6 @@
       <c r="H774" s="7"/>
       <c r="I774" s="7"/>
       <c r="J774" s="7"/>
-      <c r="K774" s="7"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="7"/>
@@ -10624,7 +9836,6 @@
       <c r="H775" s="7"/>
       <c r="I775" s="7"/>
       <c r="J775" s="7"/>
-      <c r="K775" s="7"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="7"/>
@@ -10637,7 +9848,6 @@
       <c r="H776" s="7"/>
       <c r="I776" s="7"/>
       <c r="J776" s="7"/>
-      <c r="K776" s="7"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="7"/>
@@ -10650,7 +9860,6 @@
       <c r="H777" s="7"/>
       <c r="I777" s="7"/>
       <c r="J777" s="7"/>
-      <c r="K777" s="7"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="7"/>
@@ -10663,7 +9872,6 @@
       <c r="H778" s="7"/>
       <c r="I778" s="7"/>
       <c r="J778" s="7"/>
-      <c r="K778" s="7"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="7"/>
@@ -10676,7 +9884,6 @@
       <c r="H779" s="7"/>
       <c r="I779" s="7"/>
       <c r="J779" s="7"/>
-      <c r="K779" s="7"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="7"/>
@@ -10689,7 +9896,6 @@
       <c r="H780" s="7"/>
       <c r="I780" s="7"/>
       <c r="J780" s="7"/>
-      <c r="K780" s="7"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="7"/>
@@ -10702,7 +9908,6 @@
       <c r="H781" s="7"/>
       <c r="I781" s="7"/>
       <c r="J781" s="7"/>
-      <c r="K781" s="7"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="7"/>
@@ -10715,7 +9920,6 @@
       <c r="H782" s="7"/>
       <c r="I782" s="7"/>
       <c r="J782" s="7"/>
-      <c r="K782" s="7"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="7"/>
@@ -10728,7 +9932,6 @@
       <c r="H783" s="7"/>
       <c r="I783" s="7"/>
       <c r="J783" s="7"/>
-      <c r="K783" s="7"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="7"/>
@@ -10741,7 +9944,6 @@
       <c r="H784" s="7"/>
       <c r="I784" s="7"/>
       <c r="J784" s="7"/>
-      <c r="K784" s="7"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="7"/>
@@ -10754,7 +9956,6 @@
       <c r="H785" s="7"/>
       <c r="I785" s="7"/>
       <c r="J785" s="7"/>
-      <c r="K785" s="7"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="7"/>
@@ -10767,7 +9968,6 @@
       <c r="H786" s="7"/>
       <c r="I786" s="7"/>
       <c r="J786" s="7"/>
-      <c r="K786" s="7"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="7"/>
@@ -10780,7 +9980,6 @@
       <c r="H787" s="7"/>
       <c r="I787" s="7"/>
       <c r="J787" s="7"/>
-      <c r="K787" s="7"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="7"/>
@@ -10793,7 +9992,6 @@
       <c r="H788" s="7"/>
       <c r="I788" s="7"/>
       <c r="J788" s="7"/>
-      <c r="K788" s="7"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="7"/>
@@ -10806,7 +10004,6 @@
       <c r="H789" s="7"/>
       <c r="I789" s="7"/>
       <c r="J789" s="7"/>
-      <c r="K789" s="7"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="7"/>
@@ -10819,7 +10016,6 @@
       <c r="H790" s="7"/>
       <c r="I790" s="7"/>
       <c r="J790" s="7"/>
-      <c r="K790" s="7"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="7"/>
@@ -10832,7 +10028,6 @@
       <c r="H791" s="7"/>
       <c r="I791" s="7"/>
       <c r="J791" s="7"/>
-      <c r="K791" s="7"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="7"/>
@@ -10845,7 +10040,6 @@
       <c r="H792" s="7"/>
       <c r="I792" s="7"/>
       <c r="J792" s="7"/>
-      <c r="K792" s="7"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="7"/>
@@ -10858,7 +10052,6 @@
       <c r="H793" s="7"/>
       <c r="I793" s="7"/>
       <c r="J793" s="7"/>
-      <c r="K793" s="7"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="7"/>
@@ -10871,7 +10064,6 @@
       <c r="H794" s="7"/>
       <c r="I794" s="7"/>
       <c r="J794" s="7"/>
-      <c r="K794" s="7"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="7"/>
@@ -10884,7 +10076,6 @@
       <c r="H795" s="7"/>
       <c r="I795" s="7"/>
       <c r="J795" s="7"/>
-      <c r="K795" s="7"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="7"/>
@@ -10897,7 +10088,6 @@
       <c r="H796" s="7"/>
       <c r="I796" s="7"/>
       <c r="J796" s="7"/>
-      <c r="K796" s="7"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="7"/>
@@ -10910,7 +10100,6 @@
       <c r="H797" s="7"/>
       <c r="I797" s="7"/>
       <c r="J797" s="7"/>
-      <c r="K797" s="7"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="7"/>
@@ -10923,7 +10112,6 @@
       <c r="H798" s="7"/>
       <c r="I798" s="7"/>
       <c r="J798" s="7"/>
-      <c r="K798" s="7"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="7"/>
@@ -10936,7 +10124,6 @@
       <c r="H799" s="7"/>
       <c r="I799" s="7"/>
       <c r="J799" s="7"/>
-      <c r="K799" s="7"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="7"/>
@@ -10949,7 +10136,6 @@
       <c r="H800" s="7"/>
       <c r="I800" s="7"/>
       <c r="J800" s="7"/>
-      <c r="K800" s="7"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="7"/>
@@ -10962,7 +10148,6 @@
       <c r="H801" s="7"/>
       <c r="I801" s="7"/>
       <c r="J801" s="7"/>
-      <c r="K801" s="7"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="7"/>
@@ -10975,7 +10160,6 @@
       <c r="H802" s="7"/>
       <c r="I802" s="7"/>
       <c r="J802" s="7"/>
-      <c r="K802" s="7"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="7"/>
@@ -10988,7 +10172,6 @@
       <c r="H803" s="7"/>
       <c r="I803" s="7"/>
       <c r="J803" s="7"/>
-      <c r="K803" s="7"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="7"/>
@@ -11001,7 +10184,6 @@
       <c r="H804" s="7"/>
       <c r="I804" s="7"/>
       <c r="J804" s="7"/>
-      <c r="K804" s="7"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="7"/>
@@ -11014,7 +10196,6 @@
       <c r="H805" s="7"/>
       <c r="I805" s="7"/>
       <c r="J805" s="7"/>
-      <c r="K805" s="7"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="7"/>
@@ -11027,7 +10208,6 @@
       <c r="H806" s="7"/>
       <c r="I806" s="7"/>
       <c r="J806" s="7"/>
-      <c r="K806" s="7"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="7"/>
@@ -11040,7 +10220,6 @@
       <c r="H807" s="7"/>
       <c r="I807" s="7"/>
       <c r="J807" s="7"/>
-      <c r="K807" s="7"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="7"/>
@@ -11053,7 +10232,6 @@
       <c r="H808" s="7"/>
       <c r="I808" s="7"/>
       <c r="J808" s="7"/>
-      <c r="K808" s="7"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="7"/>
@@ -11066,7 +10244,6 @@
       <c r="H809" s="7"/>
       <c r="I809" s="7"/>
       <c r="J809" s="7"/>
-      <c r="K809" s="7"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="7"/>
@@ -11079,7 +10256,6 @@
       <c r="H810" s="7"/>
       <c r="I810" s="7"/>
       <c r="J810" s="7"/>
-      <c r="K810" s="7"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="7"/>
@@ -11092,7 +10268,6 @@
       <c r="H811" s="7"/>
       <c r="I811" s="7"/>
       <c r="J811" s="7"/>
-      <c r="K811" s="7"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="7"/>
@@ -11105,7 +10280,6 @@
       <c r="H812" s="7"/>
       <c r="I812" s="7"/>
       <c r="J812" s="7"/>
-      <c r="K812" s="7"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="7"/>
@@ -11118,7 +10292,6 @@
       <c r="H813" s="7"/>
       <c r="I813" s="7"/>
       <c r="J813" s="7"/>
-      <c r="K813" s="7"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="7"/>
@@ -11131,7 +10304,6 @@
       <c r="H814" s="7"/>
       <c r="I814" s="7"/>
       <c r="J814" s="7"/>
-      <c r="K814" s="7"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="7"/>
@@ -11144,7 +10316,6 @@
       <c r="H815" s="7"/>
       <c r="I815" s="7"/>
       <c r="J815" s="7"/>
-      <c r="K815" s="7"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="7"/>
@@ -11157,7 +10328,6 @@
       <c r="H816" s="7"/>
       <c r="I816" s="7"/>
       <c r="J816" s="7"/>
-      <c r="K816" s="7"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="7"/>
@@ -11170,7 +10340,6 @@
       <c r="H817" s="7"/>
       <c r="I817" s="7"/>
       <c r="J817" s="7"/>
-      <c r="K817" s="7"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="7"/>
@@ -11183,7 +10352,6 @@
       <c r="H818" s="7"/>
       <c r="I818" s="7"/>
       <c r="J818" s="7"/>
-      <c r="K818" s="7"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="7"/>
@@ -11196,7 +10364,6 @@
       <c r="H819" s="7"/>
       <c r="I819" s="7"/>
       <c r="J819" s="7"/>
-      <c r="K819" s="7"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="7"/>
@@ -11209,7 +10376,6 @@
       <c r="H820" s="7"/>
       <c r="I820" s="7"/>
       <c r="J820" s="7"/>
-      <c r="K820" s="7"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="7"/>
@@ -11222,7 +10388,6 @@
       <c r="H821" s="7"/>
       <c r="I821" s="7"/>
       <c r="J821" s="7"/>
-      <c r="K821" s="7"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="7"/>
@@ -11235,7 +10400,6 @@
       <c r="H822" s="7"/>
       <c r="I822" s="7"/>
       <c r="J822" s="7"/>
-      <c r="K822" s="7"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="7"/>
@@ -11248,7 +10412,6 @@
       <c r="H823" s="7"/>
       <c r="I823" s="7"/>
       <c r="J823" s="7"/>
-      <c r="K823" s="7"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="7"/>
@@ -11261,7 +10424,6 @@
       <c r="H824" s="7"/>
       <c r="I824" s="7"/>
       <c r="J824" s="7"/>
-      <c r="K824" s="7"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="7"/>
@@ -11274,7 +10436,6 @@
       <c r="H825" s="7"/>
       <c r="I825" s="7"/>
       <c r="J825" s="7"/>
-      <c r="K825" s="7"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="7"/>
@@ -11287,7 +10448,6 @@
       <c r="H826" s="7"/>
       <c r="I826" s="7"/>
       <c r="J826" s="7"/>
-      <c r="K826" s="7"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="7"/>
@@ -11300,7 +10460,6 @@
       <c r="H827" s="7"/>
       <c r="I827" s="7"/>
       <c r="J827" s="7"/>
-      <c r="K827" s="7"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="7"/>
@@ -11313,7 +10472,6 @@
       <c r="H828" s="7"/>
       <c r="I828" s="7"/>
       <c r="J828" s="7"/>
-      <c r="K828" s="7"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="7"/>
@@ -11326,7 +10484,6 @@
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
       <c r="J829" s="7"/>
-      <c r="K829" s="7"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="7"/>
@@ -11339,7 +10496,6 @@
       <c r="H830" s="7"/>
       <c r="I830" s="7"/>
       <c r="J830" s="7"/>
-      <c r="K830" s="7"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="7"/>
@@ -11352,7 +10508,6 @@
       <c r="H831" s="7"/>
       <c r="I831" s="7"/>
       <c r="J831" s="7"/>
-      <c r="K831" s="7"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="7"/>
@@ -11365,7 +10520,6 @@
       <c r="H832" s="7"/>
       <c r="I832" s="7"/>
       <c r="J832" s="7"/>
-      <c r="K832" s="7"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="7"/>
@@ -11378,7 +10532,6 @@
       <c r="H833" s="7"/>
       <c r="I833" s="7"/>
       <c r="J833" s="7"/>
-      <c r="K833" s="7"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="7"/>
@@ -11391,7 +10544,6 @@
       <c r="H834" s="7"/>
       <c r="I834" s="7"/>
       <c r="J834" s="7"/>
-      <c r="K834" s="7"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="7"/>
@@ -11404,7 +10556,6 @@
       <c r="H835" s="7"/>
       <c r="I835" s="7"/>
       <c r="J835" s="7"/>
-      <c r="K835" s="7"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="7"/>
@@ -11417,7 +10568,6 @@
       <c r="H836" s="7"/>
       <c r="I836" s="7"/>
       <c r="J836" s="7"/>
-      <c r="K836" s="7"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="7"/>
@@ -11430,7 +10580,6 @@
       <c r="H837" s="7"/>
       <c r="I837" s="7"/>
       <c r="J837" s="7"/>
-      <c r="K837" s="7"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="7"/>
@@ -11443,7 +10592,6 @@
       <c r="H838" s="7"/>
       <c r="I838" s="7"/>
       <c r="J838" s="7"/>
-      <c r="K838" s="7"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="7"/>
@@ -11456,7 +10604,6 @@
       <c r="H839" s="7"/>
       <c r="I839" s="7"/>
       <c r="J839" s="7"/>
-      <c r="K839" s="7"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="7"/>
@@ -11469,7 +10616,6 @@
       <c r="H840" s="7"/>
       <c r="I840" s="7"/>
       <c r="J840" s="7"/>
-      <c r="K840" s="7"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="7"/>
@@ -11482,7 +10628,6 @@
       <c r="H841" s="7"/>
       <c r="I841" s="7"/>
       <c r="J841" s="7"/>
-      <c r="K841" s="7"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="7"/>
@@ -11495,7 +10640,6 @@
       <c r="H842" s="7"/>
       <c r="I842" s="7"/>
       <c r="J842" s="7"/>
-      <c r="K842" s="7"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="7"/>
@@ -11508,7 +10652,6 @@
       <c r="H843" s="7"/>
       <c r="I843" s="7"/>
       <c r="J843" s="7"/>
-      <c r="K843" s="7"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="7"/>
@@ -11521,7 +10664,6 @@
       <c r="H844" s="7"/>
       <c r="I844" s="7"/>
       <c r="J844" s="7"/>
-      <c r="K844" s="7"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="7"/>
@@ -11534,7 +10676,6 @@
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
       <c r="J845" s="7"/>
-      <c r="K845" s="7"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="7"/>
@@ -11547,7 +10688,6 @@
       <c r="H846" s="7"/>
       <c r="I846" s="7"/>
       <c r="J846" s="7"/>
-      <c r="K846" s="7"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="7"/>
@@ -11560,7 +10700,6 @@
       <c r="H847" s="7"/>
       <c r="I847" s="7"/>
       <c r="J847" s="7"/>
-      <c r="K847" s="7"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="7"/>
@@ -11573,7 +10712,6 @@
       <c r="H848" s="7"/>
       <c r="I848" s="7"/>
       <c r="J848" s="7"/>
-      <c r="K848" s="7"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="7"/>
@@ -11586,7 +10724,6 @@
       <c r="H849" s="7"/>
       <c r="I849" s="7"/>
       <c r="J849" s="7"/>
-      <c r="K849" s="7"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="7"/>
@@ -11599,7 +10736,6 @@
       <c r="H850" s="7"/>
       <c r="I850" s="7"/>
       <c r="J850" s="7"/>
-      <c r="K850" s="7"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="7"/>
@@ -11612,7 +10748,6 @@
       <c r="H851" s="7"/>
       <c r="I851" s="7"/>
       <c r="J851" s="7"/>
-      <c r="K851" s="7"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="7"/>
@@ -11625,7 +10760,6 @@
       <c r="H852" s="7"/>
       <c r="I852" s="7"/>
       <c r="J852" s="7"/>
-      <c r="K852" s="7"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="7"/>
@@ -11638,7 +10772,6 @@
       <c r="H853" s="7"/>
       <c r="I853" s="7"/>
       <c r="J853" s="7"/>
-      <c r="K853" s="7"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="7"/>
@@ -11651,7 +10784,6 @@
       <c r="H854" s="7"/>
       <c r="I854" s="7"/>
       <c r="J854" s="7"/>
-      <c r="K854" s="7"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="7"/>
@@ -11664,7 +10796,6 @@
       <c r="H855" s="7"/>
       <c r="I855" s="7"/>
       <c r="J855" s="7"/>
-      <c r="K855" s="7"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="7"/>
@@ -11677,7 +10808,6 @@
       <c r="H856" s="7"/>
       <c r="I856" s="7"/>
       <c r="J856" s="7"/>
-      <c r="K856" s="7"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="7"/>
@@ -11690,7 +10820,6 @@
       <c r="H857" s="7"/>
       <c r="I857" s="7"/>
       <c r="J857" s="7"/>
-      <c r="K857" s="7"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="7"/>
@@ -11703,7 +10832,6 @@
       <c r="H858" s="7"/>
       <c r="I858" s="7"/>
       <c r="J858" s="7"/>
-      <c r="K858" s="7"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="7"/>
@@ -11716,7 +10844,6 @@
       <c r="H859" s="7"/>
       <c r="I859" s="7"/>
       <c r="J859" s="7"/>
-      <c r="K859" s="7"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="7"/>
@@ -11729,7 +10856,6 @@
       <c r="H860" s="7"/>
       <c r="I860" s="7"/>
       <c r="J860" s="7"/>
-      <c r="K860" s="7"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="7"/>
@@ -11742,7 +10868,6 @@
       <c r="H861" s="7"/>
       <c r="I861" s="7"/>
       <c r="J861" s="7"/>
-      <c r="K861" s="7"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="7"/>
@@ -11755,7 +10880,6 @@
       <c r="H862" s="7"/>
       <c r="I862" s="7"/>
       <c r="J862" s="7"/>
-      <c r="K862" s="7"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="7"/>
@@ -11768,7 +10892,6 @@
       <c r="H863" s="7"/>
       <c r="I863" s="7"/>
       <c r="J863" s="7"/>
-      <c r="K863" s="7"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="7"/>
@@ -11781,7 +10904,6 @@
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
       <c r="J864" s="7"/>
-      <c r="K864" s="7"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="7"/>
@@ -11794,7 +10916,6 @@
       <c r="H865" s="7"/>
       <c r="I865" s="7"/>
       <c r="J865" s="7"/>
-      <c r="K865" s="7"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="7"/>
@@ -11807,7 +10928,6 @@
       <c r="H866" s="7"/>
       <c r="I866" s="7"/>
       <c r="J866" s="7"/>
-      <c r="K866" s="7"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="7"/>
@@ -11820,7 +10940,6 @@
       <c r="H867" s="7"/>
       <c r="I867" s="7"/>
       <c r="J867" s="7"/>
-      <c r="K867" s="7"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="7"/>
@@ -11833,7 +10952,6 @@
       <c r="H868" s="7"/>
       <c r="I868" s="7"/>
       <c r="J868" s="7"/>
-      <c r="K868" s="7"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="7"/>
@@ -11846,7 +10964,6 @@
       <c r="H869" s="7"/>
       <c r="I869" s="7"/>
       <c r="J869" s="7"/>
-      <c r="K869" s="7"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="7"/>
@@ -11859,7 +10976,6 @@
       <c r="H870" s="7"/>
       <c r="I870" s="7"/>
       <c r="J870" s="7"/>
-      <c r="K870" s="7"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="7"/>
@@ -11872,7 +10988,6 @@
       <c r="H871" s="7"/>
       <c r="I871" s="7"/>
       <c r="J871" s="7"/>
-      <c r="K871" s="7"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="7"/>
@@ -11885,7 +11000,6 @@
       <c r="H872" s="7"/>
       <c r="I872" s="7"/>
       <c r="J872" s="7"/>
-      <c r="K872" s="7"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="7"/>
@@ -11898,7 +11012,6 @@
       <c r="H873" s="7"/>
       <c r="I873" s="7"/>
       <c r="J873" s="7"/>
-      <c r="K873" s="7"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="7"/>
@@ -11911,7 +11024,6 @@
       <c r="H874" s="7"/>
       <c r="I874" s="7"/>
       <c r="J874" s="7"/>
-      <c r="K874" s="7"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="7"/>
@@ -11924,7 +11036,6 @@
       <c r="H875" s="7"/>
       <c r="I875" s="7"/>
       <c r="J875" s="7"/>
-      <c r="K875" s="7"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="7"/>
@@ -11937,7 +11048,6 @@
       <c r="H876" s="7"/>
       <c r="I876" s="7"/>
       <c r="J876" s="7"/>
-      <c r="K876" s="7"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="7"/>
@@ -11950,7 +11060,6 @@
       <c r="H877" s="7"/>
       <c r="I877" s="7"/>
       <c r="J877" s="7"/>
-      <c r="K877" s="7"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="7"/>
@@ -11963,7 +11072,6 @@
       <c r="H878" s="7"/>
       <c r="I878" s="7"/>
       <c r="J878" s="7"/>
-      <c r="K878" s="7"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="7"/>
@@ -11976,7 +11084,6 @@
       <c r="H879" s="7"/>
       <c r="I879" s="7"/>
       <c r="J879" s="7"/>
-      <c r="K879" s="7"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="7"/>
@@ -11989,7 +11096,6 @@
       <c r="H880" s="7"/>
       <c r="I880" s="7"/>
       <c r="J880" s="7"/>
-      <c r="K880" s="7"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="7"/>
@@ -12002,7 +11108,6 @@
       <c r="H881" s="7"/>
       <c r="I881" s="7"/>
       <c r="J881" s="7"/>
-      <c r="K881" s="7"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="7"/>
@@ -12015,7 +11120,6 @@
       <c r="H882" s="7"/>
       <c r="I882" s="7"/>
       <c r="J882" s="7"/>
-      <c r="K882" s="7"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="7"/>
@@ -12028,7 +11132,6 @@
       <c r="H883" s="7"/>
       <c r="I883" s="7"/>
       <c r="J883" s="7"/>
-      <c r="K883" s="7"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="7"/>
@@ -12041,7 +11144,6 @@
       <c r="H884" s="7"/>
       <c r="I884" s="7"/>
       <c r="J884" s="7"/>
-      <c r="K884" s="7"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="7"/>
@@ -12054,7 +11156,6 @@
       <c r="H885" s="7"/>
       <c r="I885" s="7"/>
       <c r="J885" s="7"/>
-      <c r="K885" s="7"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="7"/>
@@ -12067,7 +11168,6 @@
       <c r="H886" s="7"/>
       <c r="I886" s="7"/>
       <c r="J886" s="7"/>
-      <c r="K886" s="7"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="7"/>
@@ -12080,7 +11180,6 @@
       <c r="H887" s="7"/>
       <c r="I887" s="7"/>
       <c r="J887" s="7"/>
-      <c r="K887" s="7"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="7"/>
@@ -12093,7 +11192,6 @@
       <c r="H888" s="7"/>
       <c r="I888" s="7"/>
       <c r="J888" s="7"/>
-      <c r="K888" s="7"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="7"/>
@@ -12106,7 +11204,6 @@
       <c r="H889" s="7"/>
       <c r="I889" s="7"/>
       <c r="J889" s="7"/>
-      <c r="K889" s="7"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="7"/>
@@ -12119,7 +11216,6 @@
       <c r="H890" s="7"/>
       <c r="I890" s="7"/>
       <c r="J890" s="7"/>
-      <c r="K890" s="7"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="7"/>
@@ -12132,7 +11228,6 @@
       <c r="H891" s="7"/>
       <c r="I891" s="7"/>
       <c r="J891" s="7"/>
-      <c r="K891" s="7"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="7"/>
@@ -12145,7 +11240,6 @@
       <c r="H892" s="7"/>
       <c r="I892" s="7"/>
       <c r="J892" s="7"/>
-      <c r="K892" s="7"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="7"/>
@@ -12158,7 +11252,6 @@
       <c r="H893" s="7"/>
       <c r="I893" s="7"/>
       <c r="J893" s="7"/>
-      <c r="K893" s="7"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="7"/>
@@ -12171,7 +11264,6 @@
       <c r="H894" s="7"/>
       <c r="I894" s="7"/>
       <c r="J894" s="7"/>
-      <c r="K894" s="7"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="7"/>
@@ -12184,7 +11276,6 @@
       <c r="H895" s="7"/>
       <c r="I895" s="7"/>
       <c r="J895" s="7"/>
-      <c r="K895" s="7"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="7"/>
@@ -12197,7 +11288,6 @@
       <c r="H896" s="7"/>
       <c r="I896" s="7"/>
       <c r="J896" s="7"/>
-      <c r="K896" s="7"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="7"/>
@@ -12210,7 +11300,6 @@
       <c r="H897" s="7"/>
       <c r="I897" s="7"/>
       <c r="J897" s="7"/>
-      <c r="K897" s="7"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="7"/>
@@ -12223,7 +11312,6 @@
       <c r="H898" s="7"/>
       <c r="I898" s="7"/>
       <c r="J898" s="7"/>
-      <c r="K898" s="7"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="7"/>
@@ -12236,7 +11324,6 @@
       <c r="H899" s="7"/>
       <c r="I899" s="7"/>
       <c r="J899" s="7"/>
-      <c r="K899" s="7"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="7"/>
@@ -12249,7 +11336,6 @@
       <c r="H900" s="7"/>
       <c r="I900" s="7"/>
       <c r="J900" s="7"/>
-      <c r="K900" s="7"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="7"/>
@@ -12262,7 +11348,6 @@
       <c r="H901" s="7"/>
       <c r="I901" s="7"/>
       <c r="J901" s="7"/>
-      <c r="K901" s="7"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="7"/>
@@ -12275,7 +11360,6 @@
       <c r="H902" s="7"/>
       <c r="I902" s="7"/>
       <c r="J902" s="7"/>
-      <c r="K902" s="7"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="7"/>
@@ -12288,7 +11372,6 @@
       <c r="H903" s="7"/>
       <c r="I903" s="7"/>
       <c r="J903" s="7"/>
-      <c r="K903" s="7"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="7"/>
@@ -12301,7 +11384,6 @@
       <c r="H904" s="7"/>
       <c r="I904" s="7"/>
       <c r="J904" s="7"/>
-      <c r="K904" s="7"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="7"/>
@@ -12314,7 +11396,6 @@
       <c r="H905" s="7"/>
       <c r="I905" s="7"/>
       <c r="J905" s="7"/>
-      <c r="K905" s="7"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="7"/>
@@ -12327,7 +11408,6 @@
       <c r="H906" s="7"/>
       <c r="I906" s="7"/>
       <c r="J906" s="7"/>
-      <c r="K906" s="7"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="7"/>
@@ -12340,7 +11420,6 @@
       <c r="H907" s="7"/>
       <c r="I907" s="7"/>
       <c r="J907" s="7"/>
-      <c r="K907" s="7"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="7"/>
@@ -12353,7 +11432,6 @@
       <c r="H908" s="7"/>
       <c r="I908" s="7"/>
       <c r="J908" s="7"/>
-      <c r="K908" s="7"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="7"/>
@@ -12366,7 +11444,6 @@
       <c r="H909" s="7"/>
       <c r="I909" s="7"/>
       <c r="J909" s="7"/>
-      <c r="K909" s="7"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="7"/>
@@ -12379,7 +11456,6 @@
       <c r="H910" s="7"/>
       <c r="I910" s="7"/>
       <c r="J910" s="7"/>
-      <c r="K910" s="7"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="7"/>
@@ -12392,7 +11468,6 @@
       <c r="H911" s="7"/>
       <c r="I911" s="7"/>
       <c r="J911" s="7"/>
-      <c r="K911" s="7"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="7"/>
@@ -12405,7 +11480,6 @@
       <c r="H912" s="7"/>
       <c r="I912" s="7"/>
       <c r="J912" s="7"/>
-      <c r="K912" s="7"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="7"/>
@@ -12418,7 +11492,6 @@
       <c r="H913" s="7"/>
       <c r="I913" s="7"/>
       <c r="J913" s="7"/>
-      <c r="K913" s="7"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="7"/>
@@ -12431,7 +11504,6 @@
       <c r="H914" s="7"/>
       <c r="I914" s="7"/>
       <c r="J914" s="7"/>
-      <c r="K914" s="7"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="7"/>
@@ -12444,7 +11516,6 @@
       <c r="H915" s="7"/>
       <c r="I915" s="7"/>
       <c r="J915" s="7"/>
-      <c r="K915" s="7"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="7"/>
@@ -12457,7 +11528,6 @@
       <c r="H916" s="7"/>
       <c r="I916" s="7"/>
       <c r="J916" s="7"/>
-      <c r="K916" s="7"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="7"/>
@@ -12470,7 +11540,6 @@
       <c r="H917" s="7"/>
       <c r="I917" s="7"/>
       <c r="J917" s="7"/>
-      <c r="K917" s="7"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="7"/>
@@ -12483,7 +11552,6 @@
       <c r="H918" s="7"/>
       <c r="I918" s="7"/>
       <c r="J918" s="7"/>
-      <c r="K918" s="7"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="7"/>
@@ -12496,7 +11564,6 @@
       <c r="H919" s="7"/>
       <c r="I919" s="7"/>
       <c r="J919" s="7"/>
-      <c r="K919" s="7"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="7"/>
@@ -12509,7 +11576,6 @@
       <c r="H920" s="7"/>
       <c r="I920" s="7"/>
       <c r="J920" s="7"/>
-      <c r="K920" s="7"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="7"/>
@@ -12522,7 +11588,6 @@
       <c r="H921" s="7"/>
       <c r="I921" s="7"/>
       <c r="J921" s="7"/>
-      <c r="K921" s="7"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="7"/>
@@ -12535,7 +11600,6 @@
       <c r="H922" s="7"/>
       <c r="I922" s="7"/>
       <c r="J922" s="7"/>
-      <c r="K922" s="7"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="7"/>
@@ -12548,7 +11612,6 @@
       <c r="H923" s="7"/>
       <c r="I923" s="7"/>
       <c r="J923" s="7"/>
-      <c r="K923" s="7"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="7"/>
@@ -12561,7 +11624,6 @@
       <c r="H924" s="7"/>
       <c r="I924" s="7"/>
       <c r="J924" s="7"/>
-      <c r="K924" s="7"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="7"/>
@@ -12574,7 +11636,6 @@
       <c r="H925" s="7"/>
       <c r="I925" s="7"/>
       <c r="J925" s="7"/>
-      <c r="K925" s="7"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="7"/>
@@ -12587,7 +11648,6 @@
       <c r="H926" s="7"/>
       <c r="I926" s="7"/>
       <c r="J926" s="7"/>
-      <c r="K926" s="7"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="7"/>
@@ -12600,7 +11660,6 @@
       <c r="H927" s="7"/>
       <c r="I927" s="7"/>
       <c r="J927" s="7"/>
-      <c r="K927" s="7"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="7"/>
@@ -12613,7 +11672,6 @@
       <c r="H928" s="7"/>
       <c r="I928" s="7"/>
       <c r="J928" s="7"/>
-      <c r="K928" s="7"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="7"/>
@@ -12626,7 +11684,6 @@
       <c r="H929" s="7"/>
       <c r="I929" s="7"/>
       <c r="J929" s="7"/>
-      <c r="K929" s="7"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="7"/>
@@ -12639,7 +11696,6 @@
       <c r="H930" s="7"/>
       <c r="I930" s="7"/>
       <c r="J930" s="7"/>
-      <c r="K930" s="7"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="7"/>
@@ -12652,7 +11708,6 @@
       <c r="H931" s="7"/>
       <c r="I931" s="7"/>
       <c r="J931" s="7"/>
-      <c r="K931" s="7"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="7"/>
@@ -12665,7 +11720,6 @@
       <c r="H932" s="7"/>
       <c r="I932" s="7"/>
       <c r="J932" s="7"/>
-      <c r="K932" s="7"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="7"/>
@@ -12678,7 +11732,6 @@
       <c r="H933" s="7"/>
       <c r="I933" s="7"/>
       <c r="J933" s="7"/>
-      <c r="K933" s="7"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="7"/>
@@ -12691,7 +11744,6 @@
       <c r="H934" s="7"/>
       <c r="I934" s="7"/>
       <c r="J934" s="7"/>
-      <c r="K934" s="7"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="7"/>
@@ -12704,7 +11756,6 @@
       <c r="H935" s="7"/>
       <c r="I935" s="7"/>
       <c r="J935" s="7"/>
-      <c r="K935" s="7"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="7"/>
@@ -12717,7 +11768,6 @@
       <c r="H936" s="7"/>
       <c r="I936" s="7"/>
       <c r="J936" s="7"/>
-      <c r="K936" s="7"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="7"/>
@@ -12730,7 +11780,6 @@
       <c r="H937" s="7"/>
       <c r="I937" s="7"/>
       <c r="J937" s="7"/>
-      <c r="K937" s="7"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="7"/>
@@ -12743,7 +11792,6 @@
       <c r="H938" s="7"/>
       <c r="I938" s="7"/>
       <c r="J938" s="7"/>
-      <c r="K938" s="7"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="7"/>
@@ -12756,7 +11804,6 @@
       <c r="H939" s="7"/>
       <c r="I939" s="7"/>
       <c r="J939" s="7"/>
-      <c r="K939" s="7"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="7"/>
@@ -12769,7 +11816,6 @@
       <c r="H940" s="7"/>
       <c r="I940" s="7"/>
       <c r="J940" s="7"/>
-      <c r="K940" s="7"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="7"/>
@@ -12782,7 +11828,6 @@
       <c r="H941" s="7"/>
       <c r="I941" s="7"/>
       <c r="J941" s="7"/>
-      <c r="K941" s="7"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="7"/>
@@ -12795,7 +11840,6 @@
       <c r="H942" s="7"/>
       <c r="I942" s="7"/>
       <c r="J942" s="7"/>
-      <c r="K942" s="7"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="7"/>
@@ -12808,7 +11852,6 @@
       <c r="H943" s="7"/>
       <c r="I943" s="7"/>
       <c r="J943" s="7"/>
-      <c r="K943" s="7"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="7"/>
@@ -12821,7 +11864,6 @@
       <c r="H944" s="7"/>
       <c r="I944" s="7"/>
       <c r="J944" s="7"/>
-      <c r="K944" s="7"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="7"/>
@@ -12834,7 +11876,6 @@
       <c r="H945" s="7"/>
       <c r="I945" s="7"/>
       <c r="J945" s="7"/>
-      <c r="K945" s="7"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="7"/>
@@ -12847,7 +11888,6 @@
       <c r="H946" s="7"/>
       <c r="I946" s="7"/>
       <c r="J946" s="7"/>
-      <c r="K946" s="7"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="7"/>
@@ -12860,7 +11900,6 @@
       <c r="H947" s="7"/>
       <c r="I947" s="7"/>
       <c r="J947" s="7"/>
-      <c r="K947" s="7"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="7"/>
@@ -12873,7 +11912,6 @@
       <c r="H948" s="7"/>
       <c r="I948" s="7"/>
       <c r="J948" s="7"/>
-      <c r="K948" s="7"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="7"/>
@@ -12886,7 +11924,6 @@
       <c r="H949" s="7"/>
       <c r="I949" s="7"/>
       <c r="J949" s="7"/>
-      <c r="K949" s="7"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="7"/>
@@ -12899,7 +11936,6 @@
       <c r="H950" s="7"/>
       <c r="I950" s="7"/>
       <c r="J950" s="7"/>
-      <c r="K950" s="7"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="7"/>
@@ -12912,7 +11948,6 @@
       <c r="H951" s="7"/>
       <c r="I951" s="7"/>
       <c r="J951" s="7"/>
-      <c r="K951" s="7"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="7"/>
@@ -12925,7 +11960,6 @@
       <c r="H952" s="7"/>
       <c r="I952" s="7"/>
       <c r="J952" s="7"/>
-      <c r="K952" s="7"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="7"/>
@@ -12938,7 +11972,6 @@
       <c r="H953" s="7"/>
       <c r="I953" s="7"/>
       <c r="J953" s="7"/>
-      <c r="K953" s="7"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="7"/>
@@ -12951,7 +11984,6 @@
       <c r="H954" s="7"/>
       <c r="I954" s="7"/>
       <c r="J954" s="7"/>
-      <c r="K954" s="7"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="7"/>
@@ -12964,7 +11996,6 @@
       <c r="H955" s="7"/>
       <c r="I955" s="7"/>
       <c r="J955" s="7"/>
-      <c r="K955" s="7"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="7"/>
@@ -12977,7 +12008,6 @@
       <c r="H956" s="7"/>
       <c r="I956" s="7"/>
       <c r="J956" s="7"/>
-      <c r="K956" s="7"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="7"/>
@@ -12990,7 +12020,6 @@
       <c r="H957" s="7"/>
       <c r="I957" s="7"/>
       <c r="J957" s="7"/>
-      <c r="K957" s="7"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="7"/>
@@ -13003,7 +12032,6 @@
       <c r="H958" s="7"/>
       <c r="I958" s="7"/>
       <c r="J958" s="7"/>
-      <c r="K958" s="7"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="7"/>
@@ -13016,7 +12044,6 @@
       <c r="H959" s="7"/>
       <c r="I959" s="7"/>
       <c r="J959" s="7"/>
-      <c r="K959" s="7"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="7"/>
@@ -13029,7 +12056,6 @@
       <c r="H960" s="7"/>
       <c r="I960" s="7"/>
       <c r="J960" s="7"/>
-      <c r="K960" s="7"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="7"/>
@@ -13042,7 +12068,6 @@
       <c r="H961" s="7"/>
       <c r="I961" s="7"/>
       <c r="J961" s="7"/>
-      <c r="K961" s="7"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="7"/>
@@ -13055,7 +12080,6 @@
       <c r="H962" s="7"/>
       <c r="I962" s="7"/>
       <c r="J962" s="7"/>
-      <c r="K962" s="7"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="7"/>
@@ -13068,7 +12092,6 @@
       <c r="H963" s="7"/>
       <c r="I963" s="7"/>
       <c r="J963" s="7"/>
-      <c r="K963" s="7"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="7"/>
@@ -13081,7 +12104,6 @@
       <c r="H964" s="7"/>
       <c r="I964" s="7"/>
       <c r="J964" s="7"/>
-      <c r="K964" s="7"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="7"/>
@@ -13094,7 +12116,6 @@
       <c r="H965" s="7"/>
       <c r="I965" s="7"/>
       <c r="J965" s="7"/>
-      <c r="K965" s="7"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="7"/>
@@ -13107,7 +12128,6 @@
       <c r="H966" s="7"/>
       <c r="I966" s="7"/>
       <c r="J966" s="7"/>
-      <c r="K966" s="7"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="7"/>
@@ -13120,7 +12140,6 @@
       <c r="H967" s="7"/>
       <c r="I967" s="7"/>
       <c r="J967" s="7"/>
-      <c r="K967" s="7"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="7"/>
@@ -13133,7 +12152,6 @@
       <c r="H968" s="7"/>
       <c r="I968" s="7"/>
       <c r="J968" s="7"/>
-      <c r="K968" s="7"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="7"/>
@@ -13146,7 +12164,6 @@
       <c r="H969" s="7"/>
       <c r="I969" s="7"/>
       <c r="J969" s="7"/>
-      <c r="K969" s="7"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="7"/>
@@ -13159,7 +12176,6 @@
       <c r="H970" s="7"/>
       <c r="I970" s="7"/>
       <c r="J970" s="7"/>
-      <c r="K970" s="7"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="7"/>
@@ -13172,7 +12188,6 @@
       <c r="H971" s="7"/>
       <c r="I971" s="7"/>
       <c r="J971" s="7"/>
-      <c r="K971" s="7"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="7"/>
@@ -13185,7 +12200,6 @@
       <c r="H972" s="7"/>
       <c r="I972" s="7"/>
       <c r="J972" s="7"/>
-      <c r="K972" s="7"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="7"/>
@@ -13198,7 +12212,6 @@
       <c r="H973" s="7"/>
       <c r="I973" s="7"/>
       <c r="J973" s="7"/>
-      <c r="K973" s="7"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="7"/>
@@ -13211,7 +12224,6 @@
       <c r="H974" s="7"/>
       <c r="I974" s="7"/>
       <c r="J974" s="7"/>
-      <c r="K974" s="7"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="7"/>
@@ -13224,7 +12236,6 @@
       <c r="H975" s="7"/>
       <c r="I975" s="7"/>
       <c r="J975" s="7"/>
-      <c r="K975" s="7"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="7"/>
@@ -13237,7 +12248,6 @@
       <c r="H976" s="7"/>
       <c r="I976" s="7"/>
       <c r="J976" s="7"/>
-      <c r="K976" s="7"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="7"/>
@@ -13250,7 +12260,6 @@
       <c r="H977" s="7"/>
       <c r="I977" s="7"/>
       <c r="J977" s="7"/>
-      <c r="K977" s="7"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="7"/>
@@ -13263,7 +12272,6 @@
       <c r="H978" s="7"/>
       <c r="I978" s="7"/>
       <c r="J978" s="7"/>
-      <c r="K978" s="7"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="7"/>
@@ -13276,7 +12284,6 @@
       <c r="H979" s="7"/>
       <c r="I979" s="7"/>
       <c r="J979" s="7"/>
-      <c r="K979" s="7"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="7"/>
@@ -13289,7 +12296,6 @@
       <c r="H980" s="7"/>
       <c r="I980" s="7"/>
       <c r="J980" s="7"/>
-      <c r="K980" s="7"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="7"/>
@@ -13302,7 +12308,6 @@
       <c r="H981" s="7"/>
       <c r="I981" s="7"/>
       <c r="J981" s="7"/>
-      <c r="K981" s="7"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="7"/>
@@ -13315,7 +12320,6 @@
       <c r="H982" s="7"/>
       <c r="I982" s="7"/>
       <c r="J982" s="7"/>
-      <c r="K982" s="7"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="7"/>
@@ -13328,7 +12332,6 @@
       <c r="H983" s="7"/>
       <c r="I983" s="7"/>
       <c r="J983" s="7"/>
-      <c r="K983" s="7"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="7"/>
@@ -13341,7 +12344,6 @@
       <c r="H984" s="7"/>
       <c r="I984" s="7"/>
       <c r="J984" s="7"/>
-      <c r="K984" s="7"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="7"/>
@@ -13354,7 +12356,6 @@
       <c r="H985" s="7"/>
       <c r="I985" s="7"/>
       <c r="J985" s="7"/>
-      <c r="K985" s="7"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="7"/>
@@ -13367,7 +12368,6 @@
       <c r="H986" s="7"/>
       <c r="I986" s="7"/>
       <c r="J986" s="7"/>
-      <c r="K986" s="7"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="7"/>
@@ -13380,7 +12380,6 @@
       <c r="H987" s="7"/>
       <c r="I987" s="7"/>
       <c r="J987" s="7"/>
-      <c r="K987" s="7"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="7"/>
@@ -13393,7 +12392,6 @@
       <c r="H988" s="7"/>
       <c r="I988" s="7"/>
       <c r="J988" s="7"/>
-      <c r="K988" s="7"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="7"/>
@@ -13406,7 +12404,6 @@
       <c r="H989" s="7"/>
       <c r="I989" s="7"/>
       <c r="J989" s="7"/>
-      <c r="K989" s="7"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="7"/>
@@ -13419,7 +12416,6 @@
       <c r="H990" s="7"/>
       <c r="I990" s="7"/>
       <c r="J990" s="7"/>
-      <c r="K990" s="7"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="7"/>
@@ -13432,7 +12428,6 @@
       <c r="H991" s="7"/>
       <c r="I991" s="7"/>
       <c r="J991" s="7"/>
-      <c r="K991" s="7"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="7"/>
@@ -13445,7 +12440,6 @@
       <c r="H992" s="7"/>
       <c r="I992" s="7"/>
       <c r="J992" s="7"/>
-      <c r="K992" s="7"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="7"/>
@@ -13458,7 +12452,6 @@
       <c r="H993" s="7"/>
       <c r="I993" s="7"/>
       <c r="J993" s="7"/>
-      <c r="K993" s="7"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="7"/>
@@ -13471,7 +12464,6 @@
       <c r="H994" s="7"/>
       <c r="I994" s="7"/>
       <c r="J994" s="7"/>
-      <c r="K994" s="7"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
       <c r="A995" s="7"/>
@@ -13484,7 +12476,6 @@
       <c r="H995" s="7"/>
       <c r="I995" s="7"/>
       <c r="J995" s="7"/>
-      <c r="K995" s="7"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
       <c r="A996" s="7"/>
@@ -13497,7 +12488,6 @@
       <c r="H996" s="7"/>
       <c r="I996" s="7"/>
       <c r="J996" s="7"/>
-      <c r="K996" s="7"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
       <c r="A997" s="7"/>
@@ -13510,7 +12500,6 @@
       <c r="H997" s="7"/>
       <c r="I997" s="7"/>
       <c r="J997" s="7"/>
-      <c r="K997" s="7"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
       <c r="A998" s="7"/>
@@ -13523,7 +12512,6 @@
       <c r="H998" s="7"/>
       <c r="I998" s="7"/>
       <c r="J998" s="7"/>
-      <c r="K998" s="7"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
       <c r="A999" s="7"/>
@@ -13536,7 +12524,6 @@
       <c r="H999" s="7"/>
       <c r="I999" s="7"/>
       <c r="J999" s="7"/>
-      <c r="K999" s="7"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
       <c r="A1000" s="7"/>
@@ -13549,12 +12536,11 @@
       <c r="H1000" s="7"/>
       <c r="I1000" s="7"/>
       <c r="J1000" s="7"/>
-      <c r="K1000" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="L2:V2"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F350">
